--- a/Software/Arduino/Projekte/snc98/Document/Switch_Calculator.xlsx
+++ b/Software/Arduino/Projekte/snc98/Document/Switch_Calculator.xlsx
@@ -5,27 +5,30 @@
   <fileSharing readOnlyRecommended="0" userName="jens"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="15108" windowHeight="7944"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="15105" windowHeight="7950" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId5"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$201</definedName>
+  </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="3599" val="970" rev="124" rev64="64" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="3599" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" keepXLPalette="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="3599" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="3599"/>
+      <pm:revision xmlns:pm="smNativeData" day="1591713358" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1591713358" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" keepXLPalette="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1591713358" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1591713358"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="297">
   <si>
     <t>Ascii</t>
   </si>
@@ -447,217 +450,136 @@
     <t>FIX_E24</t>
   </si>
   <si>
-    <t>g</t>
+    <t>p</t>
+  </si>
+  <si>
+    <t>ln(x)</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>e^x</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>2^x</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>log(x)</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>10^x</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>x^2</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>sqrt()</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>x!</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>clock</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Beep_on_off</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>HM</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>OFF_5min</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>-(</t>
+  </si>
+  <si>
+    <t>_-(_</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
+  <si>
+    <t>--&gt;</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>GM</t>
   </si>
   <si>
     <t>M-plus(1)</t>
   </si>
   <si>
-    <t>h</t>
-  </si>
-  <si>
     <t>M-plus(2)</t>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
     <t>M-plus(3)</t>
   </si>
   <si>
-    <t>j</t>
-  </si>
-  <si>
     <t>M-plus(4)</t>
   </si>
   <si>
-    <t>k</t>
-  </si>
-  <si>
     <t>M-plus(5)</t>
   </si>
   <si>
-    <t>l</t>
-  </si>
-  <si>
     <t>M-plus(6)</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>M-plus(7)</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>M-plus(8)</t>
   </si>
   <si>
-    <t>o</t>
-  </si>
-  <si>
     <t>M-plus(9)</t>
   </si>
   <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>ln(x)</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>e^x</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>2^x</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>log(x)</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>10^x</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>x^2</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>sqrt()</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>x!</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>clock</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>Beep_on_off</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>HM</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>OFF_5min</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>-(</t>
-  </si>
-  <si>
-    <t>_-(_</t>
-  </si>
-  <si>
-    <t>€</t>
-  </si>
-  <si>
-    <t>"-&gt;&gt;"</t>
-  </si>
-  <si>
-    <t>Mem_0</t>
-  </si>
-  <si>
-    <t>Mem_1</t>
-  </si>
-  <si>
-    <t>Mem_2</t>
-  </si>
-  <si>
-    <t>Mem_3</t>
-  </si>
-  <si>
-    <t>Mem_4</t>
-  </si>
-  <si>
-    <t>Mem_5</t>
-  </si>
-  <si>
-    <t>Mem_6</t>
-  </si>
-  <si>
-    <t>Mem_7</t>
-  </si>
-  <si>
-    <t>Mem_8</t>
-  </si>
-  <si>
-    <t>Mem_9</t>
-  </si>
-  <si>
-    <t>Mem_10</t>
-  </si>
-  <si>
-    <t>Mem_11</t>
-  </si>
-  <si>
-    <t>Mem_12</t>
-  </si>
-  <si>
-    <t>Mem_13</t>
-  </si>
-  <si>
-    <t>Mem_14</t>
-  </si>
-  <si>
-    <t>Mem_15</t>
-  </si>
-  <si>
-    <t>Mem_16</t>
-  </si>
-  <si>
-    <t>Mem_17</t>
-  </si>
-  <si>
-    <t>Mem_18</t>
-  </si>
-  <si>
-    <t>Mem_19</t>
-  </si>
-  <si>
-    <t>"&lt;&lt;--&gt;&gt;"</t>
+    <t>-&gt;&gt;</t>
   </si>
   <si>
     <t>__/</t>
@@ -916,6 +838,87 @@
   </si>
   <si>
     <t>mod  mod</t>
+  </si>
+  <si>
+    <t>M-minus(1)</t>
+  </si>
+  <si>
+    <t>M-minus(2)</t>
+  </si>
+  <si>
+    <t>M-minus(3)</t>
+  </si>
+  <si>
+    <t>M-minus(4)</t>
+  </si>
+  <si>
+    <t>M-minus(5)</t>
+  </si>
+  <si>
+    <t>M-minus(6)</t>
+  </si>
+  <si>
+    <t>M-minus(7)</t>
+  </si>
+  <si>
+    <t>M-minus(8)</t>
+  </si>
+  <si>
+    <t>M-minus(9)</t>
+  </si>
+  <si>
+    <t>M-mul(1)</t>
+  </si>
+  <si>
+    <t>M-mul(2)</t>
+  </si>
+  <si>
+    <t>M-mul(3)</t>
+  </si>
+  <si>
+    <t>M-mul(4)</t>
+  </si>
+  <si>
+    <t>M-mul(5)</t>
+  </si>
+  <si>
+    <t>M-mul(6)</t>
+  </si>
+  <si>
+    <t>M-mul(7)</t>
+  </si>
+  <si>
+    <t>M-mul(8)</t>
+  </si>
+  <si>
+    <t>M-mul(9)</t>
+  </si>
+  <si>
+    <t>M-div(1)</t>
+  </si>
+  <si>
+    <t>M-div(2)</t>
+  </si>
+  <si>
+    <t>M-div(3)</t>
+  </si>
+  <si>
+    <t>M-div(4)</t>
+  </si>
+  <si>
+    <t>M-div(5)</t>
+  </si>
+  <si>
+    <t>M-div(6)</t>
+  </si>
+  <si>
+    <t>M-div(7)</t>
+  </si>
+  <si>
+    <t>M-div(8)</t>
+  </si>
+  <si>
+    <t>M-div(9)</t>
   </si>
 </sst>
 </file>
@@ -947,7 +950,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="3599" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -962,7 +965,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="3599" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -977,7 +980,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="3599" fgClr="FFFFFF" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="FFFFFF" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -993,7 +996,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="3599" fgClr="333333" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="333333" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -1009,7 +1012,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="3599" fgClr="FF9900" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="FF9900" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -1024,7 +1027,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="3599" fgClr="333399" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="333399" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1040,7 +1043,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="3599" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -1056,7 +1059,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="3599" fgClr="7F7F7F" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="7F7F7F" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default" i="1"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" i="1"/>
             <pm:ea face="SimSun" sz="220" lang="default" i="1"/>
@@ -1071,7 +1074,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="3599" fgClr="007F00" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="007F00" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1086,7 +1089,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="3599" fgClr="993300" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="993300" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1101,7 +1104,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="3599" fgClr="7F007F" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="7F007F" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1117,7 +1120,7 @@
       <sz val="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="3599" fgClr="003366" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="003366" ulstyle="none">
             <pm:latin face="Cambria" sz="360" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="360" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="360" lang="default" weight="bold"/>
@@ -1133,7 +1136,7 @@
       <sz val="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="3599" fgClr="003366" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="003366" ulstyle="none">
             <pm:latin face="Calibri" sz="300" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="300" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="300" lang="default" weight="bold"/>
@@ -1149,7 +1152,7 @@
       <sz val="13"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="3599" fgClr="003366" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="003366" ulstyle="none">
             <pm:latin face="Calibri" sz="260" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="260" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="260" lang="default" weight="bold"/>
@@ -1165,7 +1168,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="3599" fgClr="003366" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="003366" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -1180,7 +1183,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="3599" fgClr="FF9900" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="FF9900" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1195,7 +1198,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="3599" fgClr="FF0000" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="FF0000" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1211,7 +1214,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="3599" fgClr="FFFFFF" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="FFFFFF" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -1220,7 +1223,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1233,7 +1236,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="3599" type="1" fgLvl="100" fgClr="00CCCCFF" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00CCCCFF" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1244,7 +1247,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="3599" type="1" fgLvl="100" fgClr="00FF99CC" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00FF99CC" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1255,7 +1258,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="3599" type="1" fgLvl="100" fgClr="00CCFFCC" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00CCFFCC" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1266,7 +1269,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="3599" type="1" fgLvl="100" fgClr="00CC99FF" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00CC99FF" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1277,7 +1280,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="3599" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1288,7 +1291,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="3599" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1299,7 +1302,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="3599" type="1" fgLvl="100" fgClr="0099CCFF" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="0099CCFF" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1310,7 +1313,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="3599" type="1" fgLvl="100" fgClr="00FF8080" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00FF8080" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1321,7 +1324,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="3599" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1332,7 +1335,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="3599" type="1" fgLvl="100" fgClr="00FFCC00" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00FFCC00" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1343,7 +1346,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="3599" type="1" fgLvl="100" fgClr="000066CC" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="000066CC" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1354,7 +1357,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="3599" type="1" fgLvl="100" fgClr="007F007F" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="007F007F" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1365,7 +1368,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="3599" type="1" fgLvl="100" fgClr="0033CCCC" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="0033CCCC" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1376,7 +1379,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="3599" type="1" fgLvl="100" fgClr="00FF9900" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00FF9900" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1387,7 +1390,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="3599" type="1" fgLvl="100" fgClr="00333399" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00333399" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1398,7 +1401,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="3599" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1409,7 +1412,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="3599" type="1" fgLvl="100" fgClr="00339966" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00339966" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1420,7 +1423,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="3599" type="1" fgLvl="100" fgClr="00FF6600" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00FF6600" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1431,7 +1434,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="3599" type="1" fgLvl="100" fgClr="00C0C0C0" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00C0C0C0" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1442,7 +1445,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="3599" type="1" fgLvl="100" fgClr="00C0C0C0" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00C0C0C0" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1453,7 +1456,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="3599" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1467,7 +1470,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="3599" type="1" fgLvl="100" fgClr="00FFFF99" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00FFFF99" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1478,7 +1481,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="3599" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1501,13 +1504,24 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="3599" type="1" fgLvl="100" fgClr="00999999" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00999999" bgLvl="100" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -1523,7 +1537,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599"/>
+          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
         </ext>
       </extLst>
     </border>
@@ -1542,7 +1556,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599"/>
+          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
         </ext>
       </extLst>
     </border>
@@ -1561,7 +1575,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599"/>
+          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
         </ext>
       </extLst>
     </border>
@@ -1580,7 +1594,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599"/>
+          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
         </ext>
       </extLst>
     </border>
@@ -1599,7 +1613,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599"/>
+          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
         </ext>
       </extLst>
     </border>
@@ -1618,7 +1632,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599"/>
+          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
         </ext>
       </extLst>
     </border>
@@ -1637,7 +1651,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599"/>
+          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
         </ext>
       </extLst>
     </border>
@@ -1656,7 +1670,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599"/>
+          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
         </ext>
       </extLst>
     </border>
@@ -1675,7 +1689,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599"/>
+          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
         </ext>
       </extLst>
     </border>
@@ -1694,7 +1708,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599"/>
+          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
         </ext>
       </extLst>
     </border>
@@ -1713,7 +1727,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599"/>
+          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
         </ext>
       </extLst>
     </border>
@@ -1732,7 +1746,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599"/>
+          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
         </ext>
       </extLst>
     </border>
@@ -1751,7 +1765,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599"/>
+          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
         </ext>
       </extLst>
     </border>
@@ -1770,7 +1784,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599"/>
+          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
         </ext>
       </extLst>
     </border>
@@ -1789,7 +1803,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599"/>
+          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
         </ext>
       </extLst>
     </border>
@@ -1808,7 +1822,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599"/>
+          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
         </ext>
       </extLst>
     </border>
@@ -1827,7 +1841,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599"/>
+          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
         </ext>
       </extLst>
     </border>
@@ -1846,7 +1860,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599"/>
+          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
         </ext>
       </extLst>
     </border>
@@ -1865,7 +1879,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599"/>
+          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
         </ext>
       </extLst>
     </border>
@@ -1884,7 +1898,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599">
+          <pm:border xmlns:pm="smNativeData" id="1591713358">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="333333"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="333333"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="333333"/>
@@ -1908,7 +1922,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599">
+          <pm:border xmlns:pm="smNativeData" id="1591713358">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -1932,7 +1946,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599">
+          <pm:border xmlns:pm="smNativeData" id="1591713358">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -1956,7 +1970,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599">
+          <pm:border xmlns:pm="smNativeData" id="1591713358">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="333399"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="333399"/>
           </pm:border>
@@ -1978,7 +1992,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599"/>
+          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
         </ext>
       </extLst>
     </border>
@@ -1997,7 +2011,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599">
+          <pm:border xmlns:pm="smNativeData" id="1591713358">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="C0C0C0"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="C0C0C0"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="C0C0C0"/>
@@ -2021,7 +2035,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599">
+          <pm:border xmlns:pm="smNativeData" id="1591713358">
             <pm:line position="bottom" type="1" style="0" width="50" dist="20" width2="20" rgb="333399"/>
           </pm:border>
         </ext>
@@ -2042,7 +2056,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599">
+          <pm:border xmlns:pm="smNativeData" id="1591713358">
             <pm:line position="bottom" type="1" style="0" width="50" dist="20" width2="20" rgb="C0C0C0"/>
           </pm:border>
         </ext>
@@ -2063,7 +2077,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599">
+          <pm:border xmlns:pm="smNativeData" id="1591713358">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="0066CC"/>
           </pm:border>
         </ext>
@@ -2084,7 +2098,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599">
+          <pm:border xmlns:pm="smNativeData" id="1591713358">
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="FF9900"/>
           </pm:border>
         </ext>
@@ -2105,12 +2119,31 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="3599">
+          <pm:border xmlns:pm="smNativeData" id="1591713358">
             <pm:line position="top" type="2" style="0" width="20" dist="20" width2="20" rgb="333333"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="333333"/>
             <pm:line position="left" type="2" style="0" width="20" dist="20" width2="20" rgb="333333"/>
             <pm:line position="right" type="2" style="0" width="20" dist="20" width2="20" rgb="333333"/>
           </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
         </ext>
       </extLst>
     </border>
@@ -2166,13 +2199,6 @@
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3"/>
@@ -2219,6 +2245,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="44"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="45"/>
     <xf numFmtId="0" fontId="17" fillId="30" borderId="29" xfId="46"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2278,10 +2311,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="3599" count="1">
-        <pm:charStyle name="Normal" fontId="1" Id="1"/>
+      <pm:charStyles xmlns:pm="smNativeData" id="1591713358" count="1">
+        <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="3599" count="28">
+      <pm:colors xmlns:pm="smNativeData" id="1591713358" count="28">
         <pm:color name="Immergrün" rgb="9999FF"/>
         <pm:color name="Pflaume" rgb="993366"/>
         <pm:color name="Elfenbein" rgb="FFFFCC"/>
@@ -2364,7 +2397,7 @@
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface="SimSun"/>
         <a:cs typeface="Times New Roman"/>
       </a:minorFont>
@@ -2582,30 +2615,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H195"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" zoomScale="93" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="G136" sqref="G136"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.000000" defaultRowHeight="15.40"/>
   <cols>
-    <col min="2" max="3" width="11.553571" customWidth="1" style="1"/>
-    <col min="4" max="4" width="16.500000" customWidth="1" style="1"/>
+    <col min="2" max="3" width="11.553571" customWidth="1" style="47"/>
+    <col min="4" max="4" width="16.500000" customWidth="1" style="47"/>
     <col min="6" max="6" width="10.133929" customWidth="1"/>
     <col min="7" max="7" width="10.535714" customWidth="1"/>
-    <col min="8" max="8" width="7.651786" customWidth="1" style="3"/>
+    <col min="8" max="8" width="7.651786" customWidth="1" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="47" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
@@ -2617,7 +2650,7 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="49" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2625,10 +2658,10 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="47" t="n">
         <v>30</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="47" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2637,10 +2670,10 @@
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="47" t="n">
         <v>31</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="47" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
@@ -2655,10 +2688,10 @@
         <f>A3+1</f>
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="47" t="n">
         <v>32</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="47" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
@@ -2670,11 +2703,10 @@
         <f>A4+1</f>
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1">
-        <f>CODE(B5)</f>
+      <c r="C5" s="47" t="n">
         <v>33</v>
       </c>
       <c r="D5" s="50" t="s">
@@ -2692,14 +2724,13 @@
         <f>A5+1</f>
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1">
-        <f>CODE(B6)</f>
+      <c r="C6" s="47" t="n">
         <v>34</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="47" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2711,8 +2742,7 @@
       <c r="B7" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1">
-        <f>CODE(B7)</f>
+      <c r="C7" s="47" t="n">
         <v>35</v>
       </c>
       <c r="D7" s="50" t="s">
@@ -2730,14 +2760,13 @@
         <f>A7+1</f>
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1">
-        <f>CODE(B8)</f>
+      <c r="C8" s="47" t="n">
         <v>36</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="47" t="s">
         <v>20</v>
       </c>
       <c r="E8" t="s">
@@ -2752,14 +2781,13 @@
         <f>A8+1</f>
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1">
-        <f>CODE(B9)</f>
+      <c r="C9" s="47" t="n">
         <v>37</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="47" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2768,14 +2796,13 @@
         <f>A9+1</f>
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="1">
-        <f>CODE(B10)</f>
+      <c r="C10" s="47" t="n">
         <v>38</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="47" t="s">
         <v>25</v>
       </c>
       <c r="F10" t="s">
@@ -2790,11 +2817,10 @@
       <c r="B11" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1">
-        <f>CODE(B11)</f>
+      <c r="C11" s="47" t="n">
         <v>39</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="47" t="s">
         <v>27</v>
       </c>
       <c r="F11" t="s">
@@ -2806,14 +2832,13 @@
         <f>A11+1</f>
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="1">
-        <f>CODE(B12)</f>
+      <c r="C12" s="47" t="n">
         <v>40</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="47" t="s">
         <v>28</v>
       </c>
       <c r="E12" t="s">
@@ -2825,14 +2850,13 @@
         <f>A12+1</f>
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="1">
-        <f>CODE(B13)</f>
+      <c r="C13" s="47" t="n">
         <v>41</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="47" t="s">
         <v>30</v>
       </c>
       <c r="E13" t="s">
@@ -2844,20 +2868,19 @@
         <f>A13+1</f>
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="1">
-        <f>CODE(B14)</f>
+      <c r="C14" s="47" t="n">
         <v>42</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="47" t="s">
         <v>32</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="H14" s="49" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2869,8 +2892,7 @@
       <c r="B15" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="1">
-        <f>CODE(B15)</f>
+      <c r="C15" s="47" t="n">
         <v>43</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -2879,7 +2901,7 @@
       <c r="G15" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="3" t="n">
+      <c r="H15" s="49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2891,11 +2913,10 @@
       <c r="B16" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="1">
-        <f>CODE(B16)</f>
+      <c r="C16" s="47" t="n">
         <v>44</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="47" t="s">
         <v>35</v>
       </c>
       <c r="E16" t="s">
@@ -2913,8 +2934,7 @@
       <c r="B17" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="1">
-        <f>CODE(B17)</f>
+      <c r="C17" s="47" t="n">
         <v>45</v>
       </c>
       <c r="D17" s="50" t="s">
@@ -2923,7 +2943,7 @@
       <c r="G17" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="3" t="n">
+      <c r="H17" s="49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2932,14 +2952,13 @@
         <f>A17+1</f>
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="1">
-        <f>CODE(B18)</f>
+      <c r="C18" s="47" t="n">
         <v>46</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="47" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2948,20 +2967,19 @@
         <f>A18+1</f>
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="1">
-        <f>CODE(B19)</f>
+      <c r="C19" s="47" t="n">
         <v>47</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="47" t="s">
         <v>39</v>
       </c>
       <c r="G19" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="3" t="n">
+      <c r="H19" s="49" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2973,11 +2991,10 @@
       <c r="B20" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="1">
-        <f>CODE(B20)</f>
+      <c r="C20" s="47" t="n">
         <v>48</v>
       </c>
-      <c r="D20" s="1" t="str">
+      <c r="D20" s="47" t="str">
         <f>B20</f>
         <v>0</v>
       </c>
@@ -2993,11 +3010,10 @@
       <c r="B21" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="1">
-        <f>CODE(B21)</f>
+      <c r="C21" s="47" t="n">
         <v>49</v>
       </c>
-      <c r="D21" s="1" t="str">
+      <c r="D21" s="47" t="str">
         <f>B21</f>
         <v>1</v>
       </c>
@@ -3013,11 +3029,10 @@
       <c r="B22" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="1">
-        <f>CODE(B22)</f>
+      <c r="C22" s="47" t="n">
         <v>50</v>
       </c>
-      <c r="D22" s="1" t="str">
+      <c r="D22" s="47" t="str">
         <f>B22</f>
         <v>2</v>
       </c>
@@ -3033,11 +3048,10 @@
       <c r="B23" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
-        <f>CODE(B23)</f>
+      <c r="C23" s="47" t="n">
         <v>51</v>
       </c>
-      <c r="D23" s="1" t="str">
+      <c r="D23" s="47" t="str">
         <f>B23</f>
         <v>3</v>
       </c>
@@ -3053,11 +3067,10 @@
       <c r="B24" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="1">
-        <f>CODE(B24)</f>
+      <c r="C24" s="47" t="n">
         <v>52</v>
       </c>
-      <c r="D24" s="1" t="str">
+      <c r="D24" s="47" t="str">
         <f>B24</f>
         <v>4</v>
       </c>
@@ -3073,11 +3086,10 @@
       <c r="B25" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="1">
-        <f>CODE(B25)</f>
+      <c r="C25" s="47" t="n">
         <v>53</v>
       </c>
-      <c r="D25" s="1" t="str">
+      <c r="D25" s="47" t="str">
         <f>B25</f>
         <v>5</v>
       </c>
@@ -3093,11 +3105,10 @@
       <c r="B26" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="1">
-        <f>CODE(B26)</f>
+      <c r="C26" s="47" t="n">
         <v>54</v>
       </c>
-      <c r="D26" s="1" t="str">
+      <c r="D26" s="47" t="str">
         <f>B26</f>
         <v>6</v>
       </c>
@@ -3113,11 +3124,10 @@
       <c r="B27" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="1">
-        <f>CODE(B27)</f>
+      <c r="C27" s="47" t="n">
         <v>55</v>
       </c>
-      <c r="D27" s="1" t="str">
+      <c r="D27" s="47" t="str">
         <f>B27</f>
         <v>7</v>
       </c>
@@ -3133,11 +3143,10 @@
       <c r="B28" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="1">
-        <f>CODE(B28)</f>
+      <c r="C28" s="47" t="n">
         <v>56</v>
       </c>
-      <c r="D28" s="1" t="str">
+      <c r="D28" s="47" t="str">
         <f>B28</f>
         <v>8</v>
       </c>
@@ -3153,11 +3162,10 @@
       <c r="B29" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="1">
-        <f>CODE(B29)</f>
+      <c r="C29" s="47" t="n">
         <v>57</v>
       </c>
-      <c r="D29" s="1" t="str">
+      <c r="D29" s="47" t="str">
         <f>B29</f>
         <v>9</v>
       </c>
@@ -3170,14 +3178,13 @@
         <f>A29+1</f>
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="1">
-        <f>CODE(B30)</f>
+      <c r="C30" s="47" t="n">
         <v>58</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="47" t="s">
         <v>51</v>
       </c>
       <c r="F30" t="s">
@@ -3192,14 +3199,13 @@
         <f>A30+1</f>
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="1">
-        <f>CODE(B31)</f>
+      <c r="C31" s="47" t="n">
         <v>59</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="47" t="s">
         <v>53</v>
       </c>
       <c r="E31" t="s">
@@ -3211,14 +3217,13 @@
         <f>A31+1</f>
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="1">
-        <f>CODE(B32)</f>
+      <c r="C32" s="47" t="n">
         <v>60</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="47" t="s">
         <v>55</v>
       </c>
       <c r="F32" t="s">
@@ -3233,8 +3238,7 @@
       <c r="B33" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="1">
-        <f>CODE(B33)</f>
+      <c r="C33" s="47" t="n">
         <v>61</v>
       </c>
       <c r="D33" s="50" t="s">
@@ -3252,14 +3256,13 @@
         <f>A33+1</f>
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="1">
-        <f>CODE(B34)</f>
+      <c r="C34" s="47" t="n">
         <v>62</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="47" t="s">
         <v>59</v>
       </c>
       <c r="F34" t="s">
@@ -3274,14 +3277,13 @@
         <f>A34+1</f>
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="1">
-        <f>CODE(B35)</f>
+      <c r="C35" s="47" t="n">
         <v>63</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="47" t="s">
         <v>61</v>
       </c>
       <c r="F35" t="s">
@@ -3296,14 +3298,13 @@
         <f>A35+1</f>
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="1">
-        <f>CODE(B36)</f>
+      <c r="C36" s="47" t="n">
         <v>64</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="47" t="s">
         <v>63</v>
       </c>
       <c r="F36" t="s">
@@ -3315,14 +3316,13 @@
         <f>A36+1</f>
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="1">
-        <f>CODE(B37)</f>
+      <c r="C37" s="47" t="n">
         <v>65</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="47" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3331,14 +3331,13 @@
         <f>A37+1</f>
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="1">
-        <f>CODE(B38)</f>
+      <c r="C38" s="47" t="n">
         <v>66</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="47" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3347,14 +3346,13 @@
         <f>A38+1</f>
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="1">
-        <f>CODE(B39)</f>
+      <c r="C39" s="47" t="n">
         <v>67</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="47" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3363,14 +3361,13 @@
         <f>A39+1</f>
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="1">
-        <f>CODE(B40)</f>
+      <c r="C40" s="47" t="n">
         <v>68</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="47" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3379,14 +3376,13 @@
         <f>A40+1</f>
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="1">
-        <f>CODE(B41)</f>
+      <c r="C41" s="47" t="n">
         <v>69</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="47" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3395,14 +3391,13 @@
         <f>A41+1</f>
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="1">
-        <f>CODE(B42)</f>
+      <c r="C42" s="47" t="n">
         <v>70</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="47" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3411,14 +3406,13 @@
         <f>A42+1</f>
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="1">
-        <f>CODE(B43)</f>
+      <c r="C43" s="47" t="n">
         <v>71</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="47" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3427,14 +3421,13 @@
         <f>A43+1</f>
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="1">
-        <f>CODE(B44)</f>
+      <c r="C44" s="47" t="n">
         <v>72</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="47" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3443,14 +3436,13 @@
         <f>A44+1</f>
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="1">
-        <f>CODE(B45)</f>
+      <c r="C45" s="47" t="n">
         <v>73</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="47" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3459,14 +3451,13 @@
         <f>A45+1</f>
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="1">
-        <f>CODE(B46)</f>
+      <c r="C46" s="47" t="n">
         <v>74</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="47" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3475,14 +3466,13 @@
         <f>A46+1</f>
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="1">
-        <f>CODE(B47)</f>
+      <c r="C47" s="47" t="n">
         <v>75</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="47" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3491,14 +3481,13 @@
         <f>A47+1</f>
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="1">
-        <f>CODE(B48)</f>
+      <c r="C48" s="47" t="n">
         <v>76</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="47" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3507,14 +3496,13 @@
         <f>A48+1</f>
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="1">
-        <f>CODE(B49)</f>
+      <c r="C49" s="47" t="n">
         <v>77</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="47" t="s">
         <v>89</v>
       </c>
       <c r="F49" t="s">
@@ -3526,14 +3514,13 @@
         <f>A49+1</f>
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="1">
-        <f>CODE(B50)</f>
+      <c r="C50" s="47" t="n">
         <v>78</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="47" t="s">
         <v>91</v>
       </c>
       <c r="F50" t="s">
@@ -3545,14 +3532,13 @@
         <f>A50+1</f>
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="1">
-        <f>CODE(B51)</f>
+      <c r="C51" s="47" t="n">
         <v>79</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="47" t="s">
         <v>93</v>
       </c>
       <c r="F51" t="s">
@@ -3564,14 +3550,13 @@
         <f>A51+1</f>
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="1">
-        <f>CODE(B52)</f>
+      <c r="C52" s="47" t="n">
         <v>80</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="47" t="s">
         <v>95</v>
       </c>
       <c r="F52" t="s">
@@ -3583,14 +3568,13 @@
         <f>A52+1</f>
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="1">
-        <f>CODE(B53)</f>
+      <c r="C53" s="47" t="n">
         <v>81</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="47" t="s">
         <v>97</v>
       </c>
       <c r="F53" t="s">
@@ -3602,14 +3586,13 @@
         <f>A53+1</f>
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="1">
-        <f>CODE(B54)</f>
+      <c r="C54" s="47" t="n">
         <v>82</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="47" t="s">
         <v>99</v>
       </c>
       <c r="F54" t="s">
@@ -3621,14 +3604,13 @@
         <f>A54+1</f>
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="1">
-        <f>CODE(B55)</f>
+      <c r="C55" s="47" t="n">
         <v>83</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="47" t="s">
         <v>101</v>
       </c>
       <c r="F55" t="s">
@@ -3640,14 +3622,13 @@
         <f>A55+1</f>
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="1">
-        <f>CODE(B56)</f>
+      <c r="C56" s="47" t="n">
         <v>84</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="47" t="s">
         <v>103</v>
       </c>
       <c r="F56" t="s">
@@ -3659,14 +3640,13 @@
         <f>A56+1</f>
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="1">
-        <f>CODE(B57)</f>
+      <c r="C57" s="47" t="n">
         <v>85</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="47" t="s">
         <v>105</v>
       </c>
       <c r="F57" t="s">
@@ -3678,14 +3658,13 @@
         <f>A57+1</f>
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="1">
-        <f>CODE(B58)</f>
+      <c r="C58" s="47" t="n">
         <v>86</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="47" t="s">
         <v>107</v>
       </c>
       <c r="F58" t="s">
@@ -3697,14 +3676,13 @@
         <f>A58+1</f>
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="1">
-        <f>CODE(B59)</f>
+      <c r="C59" s="47" t="n">
         <v>87</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="47" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3713,20 +3691,19 @@
         <f>A59+1</f>
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C60" s="1">
-        <f>CODE(B60)</f>
+      <c r="C60" s="47" t="n">
         <v>88</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="47" t="s">
         <v>111</v>
       </c>
       <c r="G60" t="s">
         <v>9</v>
       </c>
-      <c r="H60" s="3" t="n">
+      <c r="H60" s="49" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3735,20 +3712,19 @@
         <f>A60+1</f>
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="C61" s="1">
-        <f>CODE(B61)</f>
+      <c r="C61" s="47" t="n">
         <v>89</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="47" t="s">
         <v>113</v>
       </c>
       <c r="G61" t="s">
         <v>9</v>
       </c>
-      <c r="H61" s="3" t="n">
+      <c r="H61" s="49" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3757,14 +3733,13 @@
         <f>A61+1</f>
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="C62" s="1">
-        <f>CODE(B62)</f>
+      <c r="C62" s="47" t="n">
         <v>90</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="47" t="s">
         <v>115</v>
       </c>
       <c r="E62" t="s">
@@ -3779,14 +3754,13 @@
         <f>A62+1</f>
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C63" s="1">
-        <f>CODE(B63)</f>
+      <c r="C63" s="47" t="n">
         <v>91</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="47" t="s">
         <v>117</v>
       </c>
       <c r="F63" t="s">
@@ -3798,20 +3772,19 @@
         <f>A63+1</f>
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="C64" s="1">
-        <f>CODE(B64)</f>
+      <c r="C64" s="47" t="n">
         <v>92</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="47" t="s">
         <v>119</v>
       </c>
       <c r="G64" t="s">
         <v>9</v>
       </c>
-      <c r="H64" s="3" t="n">
+      <c r="H64" s="49" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3820,14 +3793,13 @@
         <f>A64+1</f>
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="C65" s="1">
-        <f>CODE(B65)</f>
+      <c r="C65" s="47" t="n">
         <v>93</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="47" t="s">
         <v>121</v>
       </c>
       <c r="F65" t="s">
@@ -3839,20 +3811,19 @@
         <f>A65+1</f>
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="1">
-        <f>CODE(B66)</f>
+      <c r="C66" s="47" t="n">
         <v>94</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="47" t="s">
         <v>123</v>
       </c>
       <c r="G66" t="s">
         <v>9</v>
       </c>
-      <c r="H66" s="3" t="n">
+      <c r="H66" s="49" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3861,14 +3832,13 @@
         <f>A66+1</f>
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="C67" s="1">
-        <f>CODE(B67)</f>
+      <c r="C67" s="47" t="n">
         <v>95</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="47" t="s">
         <v>125</v>
       </c>
       <c r="F67" t="s">
@@ -3880,14 +3850,13 @@
         <f>A67+1</f>
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C68" s="1">
-        <f>CODE(B68)</f>
+      <c r="C68" s="47" t="n">
         <v>96</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="47" t="s">
         <v>127</v>
       </c>
       <c r="F68" t="s">
@@ -3899,14 +3868,13 @@
         <f>A68+1</f>
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="1">
-        <f>CODE(B69)</f>
+      <c r="C69" s="47" t="n">
         <v>97</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="47" t="s">
         <v>129</v>
       </c>
       <c r="F69" t="s">
@@ -3918,14 +3886,13 @@
         <f>A69+1</f>
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="C70" s="1">
-        <f>CODE(B70)</f>
+      <c r="C70" s="47" t="n">
         <v>98</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="47" t="s">
         <v>131</v>
       </c>
       <c r="F70" t="s">
@@ -3937,14 +3904,13 @@
         <f>A70+1</f>
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="C71" s="1">
-        <f>CODE(B71)</f>
+      <c r="C71" s="47" t="n">
         <v>99</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="47" t="s">
         <v>133</v>
       </c>
       <c r="F71" t="s">
@@ -3956,14 +3922,13 @@
         <f>A71+1</f>
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="C72" s="1">
-        <f>CODE(B72)</f>
+      <c r="C72" s="47" t="n">
         <v>100</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="47" t="s">
         <v>135</v>
       </c>
       <c r="F72" t="s">
@@ -3975,14 +3940,13 @@
         <f>A72+1</f>
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="C73" s="1">
-        <f>CODE(B73)</f>
+      <c r="C73" s="47" t="n">
         <v>101</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="47" t="s">
         <v>137</v>
       </c>
       <c r="F73" t="s">
@@ -3994,110 +3958,89 @@
         <f>A73+1</f>
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="C74" s="1">
-        <f>CODE(B74)</f>
+      <c r="C74" s="47" t="n">
         <v>102</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="47" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:4">
       <c r="A75">
         <f>A74+1</f>
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="C75" s="1">
-        <f>CODE(B75)</f>
-        <v>103</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="C75" s="47" t="n">
+        <v>112</v>
+      </c>
+      <c r="D75" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="F75" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76">
         <f>A75+1</f>
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="C76" s="1">
-        <f>CODE(B76)</f>
-        <v>104</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="C76" s="47" t="n">
+        <v>113</v>
+      </c>
+      <c r="D76" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="F76" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77">
         <f>A76+1</f>
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="C77" s="1">
-        <f>CODE(B77)</f>
-        <v>105</v>
-      </c>
-      <c r="D77" s="1" t="s">
+      <c r="C77" s="47" t="n">
+        <v>114</v>
+      </c>
+      <c r="D77" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="F77" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78">
         <f>A77+1</f>
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="C78" s="1">
-        <f>CODE(B78)</f>
-        <v>106</v>
-      </c>
-      <c r="D78" s="1" t="s">
+      <c r="C78" s="47" t="n">
+        <v>115</v>
+      </c>
+      <c r="D78" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="F78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79">
         <f>A78+1</f>
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="C79" s="1">
-        <f>CODE(B79)</f>
-        <v>107</v>
-      </c>
-      <c r="D79" s="1" t="s">
+      <c r="C79" s="47" t="n">
+        <v>116</v>
+      </c>
+      <c r="D79" s="50" t="s">
         <v>149</v>
-      </c>
-      <c r="F79" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4105,14 +4048,13 @@
         <f>A79+1</f>
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="C80" s="1">
-        <f>CODE(B80)</f>
-        <v>108</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="C80" s="47" t="n">
+        <v>117</v>
+      </c>
+      <c r="D80" s="47" t="s">
         <v>151</v>
       </c>
       <c r="F80" t="s">
@@ -4124,37 +4066,32 @@
         <f>A80+1</f>
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="C81" s="1">
-        <f>CODE(B81)</f>
-        <v>109</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="C81" s="47" t="n">
+        <v>118</v>
+      </c>
+      <c r="D81" s="47" t="s">
         <v>153</v>
       </c>
       <c r="F81" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:4">
       <c r="A82">
         <f>A81+1</f>
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="C82" s="1">
-        <f>CODE(B82)</f>
-        <v>110</v>
-      </c>
-      <c r="D82" s="1" t="s">
+      <c r="C82" s="47" t="n">
+        <v>119</v>
+      </c>
+      <c r="D82" s="47" t="s">
         <v>155</v>
-      </c>
-      <c r="F82" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4162,171 +4099,179 @@
         <f>A82+1</f>
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="47" t="n">
+        <v>120</v>
+      </c>
+      <c r="D83" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="C83" s="1">
-        <f>CODE(B83)</f>
-        <v>111</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="F83" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:6">
       <c r="A84">
         <f>A83+1</f>
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" s="47" t="n">
+        <v>121</v>
+      </c>
+      <c r="D84" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="C84" s="1">
-        <f>CODE(B84)</f>
-        <v>112</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="F84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85">
         <f>A84+1</f>
         <v>84</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" s="47" t="n">
+        <v>122</v>
+      </c>
+      <c r="D85" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="C85" s="1">
-        <f>CODE(B85)</f>
-        <v>113</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="F85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86">
         <f>A85+1</f>
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" s="47" t="n">
+        <v>123</v>
+      </c>
+      <c r="D86" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="C86" s="1">
-        <f>CODE(B86)</f>
-        <v>114</v>
-      </c>
-      <c r="D86" s="50" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="F86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
         <f>A86+1</f>
         <v>86</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="C87" s="47" t="n">
+        <v>124</v>
+      </c>
+      <c r="D87" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="C87" s="1">
-        <f>CODE(B87)</f>
-        <v>115</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="G87" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87" s="49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88">
         <f>A87+1</f>
         <v>87</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="C88" s="47" t="n">
+        <v>125</v>
+      </c>
+      <c r="D88" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="C88" s="1">
-        <f>CODE(B88)</f>
-        <v>116</v>
-      </c>
-      <c r="D88" s="50" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="F88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89">
         <f>A88+1</f>
         <v>88</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="C89" s="47" t="n">
+        <v>126</v>
+      </c>
+      <c r="D89" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="C89" s="1">
-        <f>CODE(B89)</f>
-        <v>117</v>
-      </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" t="s">
         <v>169</v>
       </c>
-      <c r="F89" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90">
         <f>A89+1</f>
         <v>89</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="C90" s="1">
-        <f>CODE(B90)</f>
-        <v>118</v>
-      </c>
-      <c r="D90" s="1" t="s">
+      <c r="C90" s="47" t="n">
+        <v>127</v>
+      </c>
+      <c r="D90" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="F90" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91">
         <f>A90+1</f>
         <v>90</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="47" t="n">
+        <v>128</v>
+      </c>
+      <c r="D91" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="C91" s="1">
-        <f>CODE(B91)</f>
-        <v>119</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91" t="s">
+        <v>9</v>
+      </c>
+      <c r="H91" s="49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
         <f>A91+1</f>
         <v>91</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" s="1">
-        <f>CODE(B92)</f>
-        <v>120</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F92" t="s">
-        <v>9</v>
+      <c r="C92" s="47" t="n">
+        <v>129</v>
+      </c>
+      <c r="D92" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="G92" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92" s="49" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4334,15 +4279,11 @@
         <f>A92+1</f>
         <v>92</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C93" s="1">
-        <f>CODE(B93)</f>
-        <v>121</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>176</v>
+      <c r="C93" s="47" t="n">
+        <v>135</v>
+      </c>
+      <c r="D93" s="47" t="s">
+        <v>174</v>
       </c>
       <c r="F93" t="s">
         <v>9</v>
@@ -4353,15 +4294,11 @@
         <f>A93+1</f>
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C94" s="1">
-        <f>CODE(B94)</f>
-        <v>122</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>178</v>
+      <c r="C94" s="47" t="n">
+        <v>136</v>
+      </c>
+      <c r="D94" s="47" t="s">
+        <v>175</v>
       </c>
       <c r="F94" t="s">
         <v>9</v>
@@ -4372,40 +4309,29 @@
         <f>A94+1</f>
         <v>94</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C95" s="1">
-        <f>CODE(B95)</f>
-        <v>123</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>180</v>
+      <c r="C95" s="47" t="n">
+        <v>137</v>
+      </c>
+      <c r="D95" s="47" t="s">
+        <v>176</v>
       </c>
       <c r="F95" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:6">
       <c r="A96">
         <f>A95+1</f>
         <v>95</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C96" s="1">
-        <f>CODE(B96)</f>
-        <v>124</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G96" t="s">
-        <v>9</v>
-      </c>
-      <c r="H96" s="3" t="n">
-        <v>4</v>
+      <c r="C96" s="47" t="n">
+        <v>138</v>
+      </c>
+      <c r="D96" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="F96" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4413,118 +4339,99 @@
         <f>A96+1</f>
         <v>96</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C97" s="1">
-        <f>CODE(B97)</f>
-        <v>125</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>184</v>
+      <c r="C97" s="47" t="n">
+        <v>139</v>
+      </c>
+      <c r="D97" s="47" t="s">
+        <v>178</v>
       </c>
       <c r="F97" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:6">
       <c r="A98">
         <f>A97+1</f>
         <v>97</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C98" s="1">
-        <f>CODE(B98)</f>
-        <v>126</v>
-      </c>
-      <c r="D98" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="E98" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="C98" s="47" t="n">
+        <v>140</v>
+      </c>
+      <c r="D98" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99">
         <f>A98+1</f>
         <v>98</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C99" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="C99" s="47" t="n">
+        <v>141</v>
+      </c>
+      <c r="D99" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="F99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100">
         <f>A99+1</f>
         <v>99</v>
       </c>
-      <c r="B100" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C100" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="C100" s="47" t="n">
+        <v>142</v>
+      </c>
+      <c r="D100" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="F100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101">
         <f>A100+1</f>
         <v>100</v>
       </c>
-      <c r="B101" s="1">
-        <f>B100+1</f>
-        <v>1</v>
-      </c>
-      <c r="C101" s="1">
-        <f>C100+1</f>
-        <v>129</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="C101" s="47" t="n">
+        <v>143</v>
+      </c>
+      <c r="D101" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="F101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102">
         <f>A101+1</f>
         <v>101</v>
       </c>
-      <c r="B102" s="1">
-        <f>B101+1</f>
-        <v>2</v>
-      </c>
-      <c r="C102" s="1">
-        <f>C101+1</f>
-        <v>130</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="C102" s="47" t="n">
+        <v>148</v>
+      </c>
+      <c r="D102" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="F102" s="48"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
         <f>A102+1</f>
         <v>102</v>
       </c>
-      <c r="B103" s="1">
-        <f>B102+1</f>
-        <v>3</v>
-      </c>
-      <c r="C103" s="1">
-        <f>C102+1</f>
-        <v>131</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>193</v>
+      <c r="C103" s="47" t="n">
+        <v>149</v>
+      </c>
+      <c r="D103" s="47" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4532,84 +4439,77 @@
         <f>A103+1</f>
         <v>103</v>
       </c>
-      <c r="B104" s="1">
-        <f>B103+1</f>
-        <v>4</v>
-      </c>
-      <c r="C104" s="1">
-        <f>C103+1</f>
-        <v>132</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="C104" s="47" t="n">
+        <v>150</v>
+      </c>
+      <c r="D104" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105">
         <f>A104+1</f>
         <v>104</v>
       </c>
-      <c r="B105" s="1">
-        <f>B104+1</f>
-        <v>5</v>
-      </c>
-      <c r="C105" s="1">
-        <f>C104+1</f>
-        <v>133</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="C105" s="47" t="n">
+        <v>151</v>
+      </c>
+      <c r="D105" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="G105" t="s">
+        <v>9</v>
+      </c>
+      <c r="H105" s="49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106">
         <f>A105+1</f>
         <v>105</v>
       </c>
-      <c r="B106" s="1">
-        <f>B105+1</f>
-        <v>6</v>
-      </c>
-      <c r="C106" s="1">
-        <f>C105+1</f>
-        <v>134</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="C106" s="47" t="n">
+        <v>152</v>
+      </c>
+      <c r="D106" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="G106" t="s">
+        <v>9</v>
+      </c>
+      <c r="H106" s="49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107">
         <f>A106+1</f>
         <v>106</v>
       </c>
-      <c r="B107" s="1">
-        <f>B106+1</f>
-        <v>7</v>
-      </c>
-      <c r="C107" s="1">
-        <f>C106+1</f>
-        <v>135</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="C107" s="47" t="n">
+        <v>153</v>
+      </c>
+      <c r="D107" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="E107" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108">
         <f>A107+1</f>
         <v>107</v>
       </c>
-      <c r="B108" s="1">
-        <f>B107+1</f>
-        <v>8</v>
-      </c>
-      <c r="C108" s="1">
-        <f>C107+1</f>
-        <v>136</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>198</v>
+      <c r="C108" s="47" t="n">
+        <v>154</v>
+      </c>
+      <c r="D108" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="E108" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4617,16 +4517,11 @@
         <f>A108+1</f>
         <v>108</v>
       </c>
-      <c r="B109" s="1">
-        <f>B108+1</f>
-        <v>9</v>
-      </c>
-      <c r="C109" s="1">
-        <f>C108+1</f>
-        <v>137</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>199</v>
+      <c r="C109" s="47" t="n">
+        <v>155</v>
+      </c>
+      <c r="D109" s="47" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4634,169 +4529,204 @@
         <f>A109+1</f>
         <v>109</v>
       </c>
-      <c r="B110" s="1">
-        <f>B109+1</f>
-        <v>10</v>
-      </c>
-      <c r="C110" s="1">
-        <f>C109+1</f>
-        <v>138</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="C110" s="47" t="n">
+        <v>156</v>
+      </c>
+      <c r="D110" s="47" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111">
         <f>A110+1</f>
         <v>110</v>
       </c>
-      <c r="B111" s="1">
-        <f>B110+1</f>
-        <v>11</v>
-      </c>
-      <c r="C111" s="1">
-        <f>C110+1</f>
-        <v>139</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="B111" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" s="47" t="n">
+        <v>160</v>
+      </c>
+      <c r="D111" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="F111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112">
         <f>A111+1</f>
         <v>111</v>
       </c>
-      <c r="B112" s="1">
-        <f>B111+1</f>
-        <v>12</v>
-      </c>
-      <c r="C112" s="1">
-        <f>C111+1</f>
-        <v>140</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="B112" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" s="47" t="n">
+        <v>161</v>
+      </c>
+      <c r="D112" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="E112" t="s">
+        <v>196</v>
+      </c>
+      <c r="F112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113">
         <f>A112+1</f>
         <v>112</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="47">
         <f>B112+1</f>
-        <v>13</v>
-      </c>
-      <c r="C113" s="1">
-        <f>C112+1</f>
-        <v>141</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="C113" s="47" t="n">
+        <v>162</v>
+      </c>
+      <c r="D113" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="E113" t="s">
+        <v>198</v>
+      </c>
+      <c r="F113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114">
         <f>A113+1</f>
         <v>113</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="47">
         <f>B113+1</f>
-        <v>14</v>
-      </c>
-      <c r="C114" s="1">
-        <f>C113+1</f>
-        <v>142</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="C114" s="47" t="n">
+        <v>163</v>
+      </c>
+      <c r="D114" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="E114" t="s">
+        <v>200</v>
+      </c>
+      <c r="F114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115">
         <f>A114+1</f>
         <v>114</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="47">
         <f>B114+1</f>
-        <v>15</v>
-      </c>
-      <c r="C115" s="1">
-        <f>C114+1</f>
-        <v>143</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="C115" s="47" t="n">
+        <v>164</v>
+      </c>
+      <c r="D115" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="E115" t="s">
+        <v>202</v>
+      </c>
+      <c r="F115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116">
         <f>A115+1</f>
         <v>115</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="47">
         <f>B115+1</f>
-        <v>16</v>
-      </c>
-      <c r="C116" s="1">
-        <f>C115+1</f>
-        <v>144</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="C116" s="47" t="n">
+        <v>165</v>
+      </c>
+      <c r="D116" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="E116" t="s">
+        <v>204</v>
+      </c>
+      <c r="F116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117">
         <f>A116+1</f>
         <v>116</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="47">
         <f>B116+1</f>
-        <v>17</v>
-      </c>
-      <c r="C117" s="1">
-        <f>C116+1</f>
-        <v>145</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="C117" s="47" t="n">
+        <v>166</v>
+      </c>
+      <c r="D117" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="E117" t="s">
+        <v>206</v>
+      </c>
+      <c r="F117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118">
         <f>A117+1</f>
         <v>117</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="47">
         <f>B117+1</f>
-        <v>18</v>
-      </c>
-      <c r="C118" s="1">
-        <f>C117+1</f>
-        <v>146</v>
-      </c>
-      <c r="D118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="47" t="n">
+        <v>167</v>
+      </c>
+      <c r="D118" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="E118" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="F118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119">
         <f>A118+1</f>
         <v>118</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="47">
         <f>B118+1</f>
-        <v>19</v>
-      </c>
-      <c r="C119" s="1">
-        <f>C118+1</f>
-        <v>147</v>
-      </c>
-      <c r="D119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="47" t="n">
+        <v>168</v>
+      </c>
+      <c r="D119" s="47" t="s">
         <v>209</v>
+      </c>
+      <c r="E119" t="s">
+        <v>210</v>
+      </c>
+      <c r="F119" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4804,34 +4734,33 @@
         <f>A119+1</f>
         <v>119</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="47">
         <f>B119+1</f>
-        <v>20</v>
-      </c>
-      <c r="C120" s="1">
-        <f>C119+1</f>
-        <v>148</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F120" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C120" s="47" t="n">
+        <v>169</v>
+      </c>
+      <c r="D120" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="E120" t="s">
+        <v>212</v>
+      </c>
+      <c r="F120" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
         <f>A120+1</f>
         <v>120</v>
       </c>
-      <c r="B121" s="1">
-        <f>B120+1</f>
-        <v>21</v>
-      </c>
-      <c r="C121" s="1">
-        <f>C120+1</f>
-        <v>149</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>211</v>
+      <c r="C121" s="47" t="n">
+        <v>170</v>
+      </c>
+      <c r="D121" s="47" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4839,16 +4768,11 @@
         <f>A121+1</f>
         <v>121</v>
       </c>
-      <c r="B122" s="1">
-        <f>B121+1</f>
-        <v>22</v>
-      </c>
-      <c r="C122" s="1">
-        <f>C121+1</f>
-        <v>150</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>212</v>
+      <c r="C122" s="47" t="n">
+        <v>171</v>
+      </c>
+      <c r="D122" s="47" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4856,16 +4780,11 @@
         <f>A122+1</f>
         <v>122</v>
       </c>
-      <c r="B123" s="1">
-        <f>B122+1</f>
-        <v>23</v>
-      </c>
-      <c r="C123" s="1">
-        <f>C122+1</f>
-        <v>151</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>213</v>
+      <c r="C123" s="47" t="n">
+        <v>172</v>
+      </c>
+      <c r="D123" s="47" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4873,97 +4792,126 @@
         <f>A123+1</f>
         <v>123</v>
       </c>
-      <c r="B124" s="1">
-        <f>B123+1</f>
-        <v>24</v>
-      </c>
-      <c r="C124" s="1">
-        <f>C123+1</f>
-        <v>152</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="C124" s="47" t="n">
+        <v>173</v>
+      </c>
+      <c r="D124" s="47" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125">
         <f>A124+1</f>
         <v>124</v>
       </c>
-      <c r="C125" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E125" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="C125" s="47" t="n">
+        <v>174</v>
+      </c>
+      <c r="D125" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="F125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126">
         <f>A125+1</f>
         <v>125</v>
       </c>
-      <c r="C126" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E126" t="s">
+      <c r="C126" s="47" t="n">
+        <v>175</v>
+      </c>
+      <c r="D126" s="47" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="F126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127">
         <f>A126+1</f>
         <v>126</v>
       </c>
-      <c r="C127" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="D127" s="1" t="s">
+      <c r="C127" s="47" t="n">
+        <v>176</v>
+      </c>
+      <c r="D127" s="47" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="F127" s="47" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128">
         <f>A127+1</f>
         <v>127</v>
       </c>
-      <c r="C128" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="D128" s="1" t="s">
+      <c r="C128" s="47" t="n">
+        <v>177</v>
+      </c>
+      <c r="D128" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="F128" s="47" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:6">
       <c r="A129">
         <f>A128+1</f>
         <v>128</v>
       </c>
-      <c r="C129" s="1" t="n">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="B129" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" s="47" t="n">
+        <v>178</v>
+      </c>
+      <c r="D129" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="F129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130">
         <f>A129+1</f>
         <v>129</v>
       </c>
-      <c r="C130" s="1" t="n">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="B130" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" s="47" t="n">
+        <v>179</v>
+      </c>
+      <c r="D130" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="F130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131">
         <f>A130+1</f>
         <v>130</v>
       </c>
-      <c r="C131" s="1" t="n">
-        <v>159</v>
+      <c r="B131" s="47">
+        <f>B130+1</f>
+        <v>2</v>
+      </c>
+      <c r="C131" s="47" t="n">
+        <v>180</v>
+      </c>
+      <c r="D131" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="F131" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4971,14 +4919,15 @@
         <f>A131+1</f>
         <v>131</v>
       </c>
-      <c r="B132" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C132" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>221</v>
+      <c r="B132" s="47">
+        <f>B131+1</f>
+        <v>3</v>
+      </c>
+      <c r="C132" s="47" t="n">
+        <v>181</v>
+      </c>
+      <c r="D132" s="47" t="s">
+        <v>225</v>
       </c>
       <c r="F132" t="s">
         <v>9</v>
@@ -4989,18 +4938,15 @@
         <f>A132+1</f>
         <v>132</v>
       </c>
-      <c r="B133" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C133" s="1">
-        <f>C132+1</f>
-        <v>161</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E133" t="s">
-        <v>223</v>
+      <c r="B133" s="47">
+        <f>B132+1</f>
+        <v>4</v>
+      </c>
+      <c r="C133" s="47" t="n">
+        <v>182</v>
+      </c>
+      <c r="D133" s="47" t="s">
+        <v>226</v>
       </c>
       <c r="F133" t="s">
         <v>9</v>
@@ -5011,19 +4957,15 @@
         <f>A133+1</f>
         <v>133</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134" s="47">
         <f>B133+1</f>
-        <v>2</v>
-      </c>
-      <c r="C134" s="1">
-        <f>C133+1</f>
-        <v>162</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E134" t="s">
-        <v>225</v>
+        <v>5</v>
+      </c>
+      <c r="C134" s="47" t="n">
+        <v>183</v>
+      </c>
+      <c r="D134" s="47" t="s">
+        <v>227</v>
       </c>
       <c r="F134" t="s">
         <v>9</v>
@@ -5034,19 +4976,15 @@
         <f>A134+1</f>
         <v>134</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="47">
         <f>B134+1</f>
-        <v>3</v>
-      </c>
-      <c r="C135" s="1">
-        <f>C134+1</f>
-        <v>163</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E135" t="s">
-        <v>227</v>
+        <v>6</v>
+      </c>
+      <c r="C135" s="47" t="n">
+        <v>184</v>
+      </c>
+      <c r="D135" s="47" t="s">
+        <v>228</v>
       </c>
       <c r="F135" t="s">
         <v>9</v>
@@ -5057,18 +4995,14 @@
         <f>A135+1</f>
         <v>135</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="47">
         <f>B135+1</f>
-        <v>4</v>
-      </c>
-      <c r="C136" s="1">
-        <f>C135+1</f>
-        <v>164</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" s="47" t="n">
+        <v>185</v>
+      </c>
+      <c r="D136" s="47" t="s">
         <v>229</v>
       </c>
       <c r="F136" t="s">
@@ -5080,19 +5014,15 @@
         <f>A136+1</f>
         <v>136</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="47">
         <f>B136+1</f>
-        <v>5</v>
-      </c>
-      <c r="C137" s="1">
-        <f>C136+1</f>
-        <v>165</v>
-      </c>
-      <c r="D137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="47" t="n">
+        <v>186</v>
+      </c>
+      <c r="D137" s="47" t="s">
         <v>230</v>
-      </c>
-      <c r="E137" t="s">
-        <v>231</v>
       </c>
       <c r="F137" t="s">
         <v>9</v>
@@ -5103,19 +5033,15 @@
         <f>A137+1</f>
         <v>137</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138" s="47">
         <f>B137+1</f>
-        <v>6</v>
-      </c>
-      <c r="C138" s="1">
-        <f>C137+1</f>
-        <v>166</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E138" t="s">
-        <v>233</v>
+        <v>9</v>
+      </c>
+      <c r="C138" s="47" t="n">
+        <v>187</v>
+      </c>
+      <c r="D138" s="47" t="s">
+        <v>231</v>
       </c>
       <c r="F138" t="s">
         <v>9</v>
@@ -5126,22 +5052,14 @@
         <f>A138+1</f>
         <v>138</v>
       </c>
-      <c r="B139" s="1">
-        <f>B138+1</f>
-        <v>7</v>
-      </c>
-      <c r="C139" s="1">
-        <f>C138+1</f>
-        <v>167</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E139" t="s">
-        <v>235</v>
-      </c>
-      <c r="F139" t="s">
-        <v>9</v>
+      <c r="C139" s="47" t="n">
+        <v>188</v>
+      </c>
+      <c r="D139" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="F139" s="47" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -5149,22 +5067,14 @@
         <f>A139+1</f>
         <v>139</v>
       </c>
-      <c r="B140" s="1">
-        <f>B139+1</f>
-        <v>8</v>
-      </c>
-      <c r="C140" s="1">
-        <f>C139+1</f>
-        <v>168</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E140" t="s">
-        <v>237</v>
-      </c>
-      <c r="F140" t="s">
-        <v>9</v>
+      <c r="C140" s="47" t="n">
+        <v>189</v>
+      </c>
+      <c r="D140" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="F140" s="47" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -5172,74 +5082,72 @@
         <f>A140+1</f>
         <v>140</v>
       </c>
-      <c r="B141" s="1">
-        <f>B140+1</f>
-        <v>9</v>
-      </c>
-      <c r="C141" s="1">
-        <f>C140+1</f>
-        <v>169</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E141" t="s">
-        <v>239</v>
-      </c>
-      <c r="F141" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="C141" s="47" t="n">
+        <v>190</v>
+      </c>
+      <c r="D141" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="F141" s="47"/>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142">
         <f>A141+1</f>
         <v>141</v>
       </c>
-      <c r="C142" s="1">
-        <f>C141+1</f>
-        <v>170</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="C142" s="47" t="n">
+        <v>191</v>
+      </c>
+      <c r="D142" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="F142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143">
         <f>A142+1</f>
         <v>142</v>
       </c>
-      <c r="C143" s="1">
-        <f>C142+1</f>
-        <v>171</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="C143" s="47" t="n">
+        <v>192</v>
+      </c>
+      <c r="D143" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="F143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144">
         <f>A143+1</f>
         <v>143</v>
       </c>
-      <c r="C144" s="1">
-        <f>C143+1</f>
-        <v>172</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="C144" s="47" t="n">
+        <v>193</v>
+      </c>
+      <c r="D144" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="F144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145">
         <f>A144+1</f>
         <v>144</v>
       </c>
-      <c r="C145" s="1">
-        <f>C144+1</f>
-        <v>173</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>243</v>
+      <c r="C145" s="47" t="n">
+        <v>194</v>
+      </c>
+      <c r="D145" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="F145" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -5247,12 +5155,11 @@
         <f>A145+1</f>
         <v>145</v>
       </c>
-      <c r="C146" s="1">
-        <f>C145+1</f>
-        <v>174</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>244</v>
+      <c r="C146" s="47" t="n">
+        <v>195</v>
+      </c>
+      <c r="D146" s="47" t="s">
+        <v>241</v>
       </c>
       <c r="F146" t="s">
         <v>9</v>
@@ -5263,12 +5170,11 @@
         <f>A146+1</f>
         <v>146</v>
       </c>
-      <c r="C147" s="1">
-        <f>C146+1</f>
-        <v>175</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>245</v>
+      <c r="C147" s="47" t="n">
+        <v>196</v>
+      </c>
+      <c r="D147" s="47" t="s">
+        <v>242</v>
       </c>
       <c r="F147" t="s">
         <v>9</v>
@@ -5279,15 +5185,14 @@
         <f>A147+1</f>
         <v>147</v>
       </c>
-      <c r="C148" s="1">
-        <f>C147+1</f>
-        <v>176</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>247</v>
+      <c r="C148" s="47" t="n">
+        <v>197</v>
+      </c>
+      <c r="D148" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="F148" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -5295,15 +5200,14 @@
         <f>A148+1</f>
         <v>148</v>
       </c>
-      <c r="C149" s="1">
-        <f>C148+1</f>
-        <v>177</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>247</v>
+      <c r="C149" s="47" t="n">
+        <v>198</v>
+      </c>
+      <c r="D149" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="F149" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -5311,15 +5215,11 @@
         <f>A149+1</f>
         <v>149</v>
       </c>
-      <c r="B150" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C150" s="1">
-        <f>C149+1</f>
-        <v>178</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>249</v>
+      <c r="C150" s="47" t="n">
+        <v>199</v>
+      </c>
+      <c r="D150" s="47" t="s">
+        <v>245</v>
       </c>
       <c r="F150" t="s">
         <v>9</v>
@@ -5330,15 +5230,11 @@
         <f>A150+1</f>
         <v>150</v>
       </c>
-      <c r="B151" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C151" s="1">
-        <f>C150+1</f>
-        <v>179</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>250</v>
+      <c r="C151" s="47" t="n">
+        <v>200</v>
+      </c>
+      <c r="D151" s="47" t="s">
+        <v>246</v>
       </c>
       <c r="F151" t="s">
         <v>9</v>
@@ -5349,16 +5245,11 @@
         <f>A151+1</f>
         <v>151</v>
       </c>
-      <c r="B152" s="1">
-        <f>B151+1</f>
-        <v>2</v>
-      </c>
-      <c r="C152" s="1">
-        <f>C151+1</f>
-        <v>180</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>251</v>
+      <c r="C152" s="47" t="n">
+        <v>201</v>
+      </c>
+      <c r="D152" s="47" t="s">
+        <v>247</v>
       </c>
       <c r="F152" t="s">
         <v>9</v>
@@ -5369,16 +5260,11 @@
         <f>A152+1</f>
         <v>152</v>
       </c>
-      <c r="B153" s="1">
-        <f>B152+1</f>
-        <v>3</v>
-      </c>
-      <c r="C153" s="1">
-        <f>C152+1</f>
-        <v>181</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>252</v>
+      <c r="C153" s="47" t="n">
+        <v>202</v>
+      </c>
+      <c r="D153" s="47" t="s">
+        <v>248</v>
       </c>
       <c r="F153" t="s">
         <v>9</v>
@@ -5389,16 +5275,11 @@
         <f>A153+1</f>
         <v>153</v>
       </c>
-      <c r="B154" s="1">
-        <f>B153+1</f>
-        <v>4</v>
-      </c>
-      <c r="C154" s="1">
-        <f>C153+1</f>
-        <v>182</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>253</v>
+      <c r="C154" s="47" t="n">
+        <v>203</v>
+      </c>
+      <c r="D154" s="47" t="s">
+        <v>249</v>
       </c>
       <c r="F154" t="s">
         <v>9</v>
@@ -5409,16 +5290,11 @@
         <f>A154+1</f>
         <v>154</v>
       </c>
-      <c r="B155" s="1">
-        <f>B154+1</f>
-        <v>5</v>
-      </c>
-      <c r="C155" s="1">
-        <f>C154+1</f>
-        <v>183</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>254</v>
+      <c r="C155" s="47" t="n">
+        <v>204</v>
+      </c>
+      <c r="D155" s="47" t="s">
+        <v>250</v>
       </c>
       <c r="F155" t="s">
         <v>9</v>
@@ -5429,16 +5305,11 @@
         <f>A155+1</f>
         <v>155</v>
       </c>
-      <c r="B156" s="1">
-        <f>B155+1</f>
-        <v>6</v>
-      </c>
-      <c r="C156" s="1">
-        <f>C155+1</f>
-        <v>184</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>255</v>
+      <c r="C156" s="47" t="n">
+        <v>205</v>
+      </c>
+      <c r="D156" s="47" t="s">
+        <v>251</v>
       </c>
       <c r="F156" t="s">
         <v>9</v>
@@ -5449,16 +5320,11 @@
         <f>A156+1</f>
         <v>156</v>
       </c>
-      <c r="B157" s="1">
-        <f>B156+1</f>
-        <v>7</v>
-      </c>
-      <c r="C157" s="1">
-        <f>C156+1</f>
-        <v>185</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>256</v>
+      <c r="C157" s="47" t="n">
+        <v>206</v>
+      </c>
+      <c r="D157" s="47" t="s">
+        <v>252</v>
       </c>
       <c r="F157" t="s">
         <v>9</v>
@@ -5469,16 +5335,11 @@
         <f>A157+1</f>
         <v>157</v>
       </c>
-      <c r="B158" s="1">
-        <f>B157+1</f>
-        <v>8</v>
-      </c>
-      <c r="C158" s="1">
-        <f>C157+1</f>
-        <v>186</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>257</v>
+      <c r="C158" s="47" t="n">
+        <v>207</v>
+      </c>
+      <c r="D158" s="47" t="s">
+        <v>253</v>
       </c>
       <c r="F158" t="s">
         <v>9</v>
@@ -5489,16 +5350,11 @@
         <f>A158+1</f>
         <v>158</v>
       </c>
-      <c r="B159" s="1">
-        <f>B158+1</f>
-        <v>9</v>
-      </c>
-      <c r="C159" s="1">
-        <f>C158+1</f>
-        <v>187</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>258</v>
+      <c r="C159" s="47" t="n">
+        <v>208</v>
+      </c>
+      <c r="D159" s="47" t="s">
+        <v>254</v>
       </c>
       <c r="F159" t="s">
         <v>9</v>
@@ -5509,15 +5365,14 @@
         <f>A159+1</f>
         <v>159</v>
       </c>
-      <c r="C160" s="1">
-        <f>C159+1</f>
-        <v>188</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>260</v>
+      <c r="C160" s="47" t="n">
+        <v>209</v>
+      </c>
+      <c r="D160" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="F160" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -5525,639 +5380,721 @@
         <f>A160+1</f>
         <v>160</v>
       </c>
-      <c r="C161" s="1">
-        <f>C160+1</f>
-        <v>189</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
+      <c r="C161" s="47" t="n">
+        <v>210</v>
+      </c>
+      <c r="D161" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="F161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162">
         <f>A161+1</f>
         <v>161</v>
       </c>
-      <c r="C162" s="1">
-        <f>C161+1</f>
-        <v>190</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F162" s="1"/>
-    </row>
-    <row r="163" spans="1:6">
+      <c r="C162" s="47" t="n">
+        <v>211</v>
+      </c>
+      <c r="D162" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="G162" t="s">
+        <v>9</v>
+      </c>
+      <c r="H162" s="49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163">
         <f>A162+1</f>
         <v>162</v>
       </c>
-      <c r="C163" s="1">
-        <f>C162+1</f>
-        <v>191</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F163" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+      <c r="B163" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C163" s="47" t="n">
+        <v>212</v>
+      </c>
+      <c r="D163" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="G163" t="s">
+        <v>9</v>
+      </c>
+      <c r="H163" s="49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164">
         <f>A163+1</f>
         <v>163</v>
       </c>
-      <c r="C164" s="1">
-        <f>C163+1</f>
-        <v>192</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F164" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
+      <c r="B164" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C164" s="47" t="n">
+        <v>213</v>
+      </c>
+      <c r="D164" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="G164" t="s">
+        <v>9</v>
+      </c>
+      <c r="H164" s="49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165">
         <f>A164+1</f>
         <v>164</v>
       </c>
-      <c r="C165" s="1">
-        <f>C164+1</f>
-        <v>193</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F165" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
+      <c r="B165" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C165" s="47" t="n">
+        <v>214</v>
+      </c>
+      <c r="D165" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="G165" t="s">
+        <v>9</v>
+      </c>
+      <c r="H165" s="49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166">
         <f>A165+1</f>
         <v>165</v>
       </c>
-      <c r="C166" s="1">
-        <f>C165+1</f>
-        <v>194</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F166" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+      <c r="B166" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C166" s="47" t="n">
+        <v>215</v>
+      </c>
+      <c r="D166" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="G166" t="s">
+        <v>9</v>
+      </c>
+      <c r="H166" s="49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167">
         <f>A166+1</f>
         <v>166</v>
       </c>
-      <c r="C167" s="1">
-        <f>C166+1</f>
-        <v>195</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F167" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
+      <c r="B167" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C167" s="47" t="n">
+        <v>216</v>
+      </c>
+      <c r="D167" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="G167" t="s">
+        <v>9</v>
+      </c>
+      <c r="H167" s="49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168">
         <f>A167+1</f>
         <v>167</v>
       </c>
-      <c r="C168" s="1">
-        <f>C167+1</f>
-        <v>196</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F168" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+      <c r="B168" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C168" s="47" t="n">
+        <v>217</v>
+      </c>
+      <c r="D168" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="G168" t="s">
+        <v>9</v>
+      </c>
+      <c r="H168" s="49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169">
         <f>A168+1</f>
         <v>168</v>
       </c>
-      <c r="C169" s="1">
-        <f>C168+1</f>
-        <v>197</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F169" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
+      <c r="B169" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C169" s="47" t="n">
+        <v>218</v>
+      </c>
+      <c r="D169" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="G169" t="s">
+        <v>9</v>
+      </c>
+      <c r="H169" s="49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170">
         <f>A169+1</f>
         <v>169</v>
       </c>
-      <c r="C170" s="1">
-        <f>C169+1</f>
-        <v>198</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F170" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
+      <c r="B170" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C170" s="47" t="n">
+        <v>219</v>
+      </c>
+      <c r="D170" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="G170" t="s">
+        <v>9</v>
+      </c>
+      <c r="H170" s="49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171">
         <f>A170+1</f>
         <v>170</v>
       </c>
-      <c r="C171" s="1">
-        <f>C170+1</f>
-        <v>199</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F171" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
+      <c r="B171" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="C171" s="47" t="n">
+        <v>220</v>
+      </c>
+      <c r="D171" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="G171" t="s">
+        <v>9</v>
+      </c>
+      <c r="H171" s="49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172">
         <f>A171+1</f>
         <v>171</v>
       </c>
-      <c r="C172" s="1">
-        <f>C171+1</f>
-        <v>200</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F172" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
+      <c r="B172" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="C172" s="47" t="n">
+        <v>221</v>
+      </c>
+      <c r="D172" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="G172" t="s">
+        <v>9</v>
+      </c>
+      <c r="H172" s="49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173">
         <f>A172+1</f>
         <v>172</v>
       </c>
-      <c r="C173" s="1">
-        <f>C172+1</f>
-        <v>201</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F173" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
+      <c r="B173" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="C173" s="47" t="n">
+        <v>222</v>
+      </c>
+      <c r="D173" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="G173" t="s">
+        <v>9</v>
+      </c>
+      <c r="H173" s="49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174">
         <f>A173+1</f>
         <v>173</v>
       </c>
-      <c r="C174" s="1">
-        <f>C173+1</f>
-        <v>202</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F174" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
+      <c r="B174" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C174" s="47" t="n">
+        <v>223</v>
+      </c>
+      <c r="D174" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="G174" t="s">
+        <v>9</v>
+      </c>
+      <c r="H174" s="49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175">
         <f>A174+1</f>
         <v>174</v>
       </c>
-      <c r="C175" s="1">
-        <f>C174+1</f>
-        <v>203</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F175" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
+      <c r="B175" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C175" s="47" t="n">
+        <v>225</v>
+      </c>
+      <c r="D175" s="47" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176">
         <f>A175+1</f>
         <v>175</v>
       </c>
-      <c r="C176" s="1">
-        <f>C175+1</f>
-        <v>204</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F176" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
+      <c r="B176" s="47">
+        <f>B175+1</f>
+        <v>2</v>
+      </c>
+      <c r="C176" s="47" t="n">
+        <v>226</v>
+      </c>
+      <c r="D176" s="47" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177">
         <f>A176+1</f>
         <v>176</v>
       </c>
-      <c r="C177" s="1">
-        <f>C176+1</f>
-        <v>205</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F177" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
+      <c r="B177" s="47">
+        <f>B176+1</f>
+        <v>3</v>
+      </c>
+      <c r="C177" s="47" t="n">
+        <v>227</v>
+      </c>
+      <c r="D177" s="47" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178">
         <f>A177+1</f>
         <v>177</v>
       </c>
-      <c r="C178" s="1">
-        <f>C177+1</f>
-        <v>206</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F178" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
+      <c r="B178" s="47">
+        <f>B177+1</f>
+        <v>4</v>
+      </c>
+      <c r="C178" s="47" t="n">
+        <v>228</v>
+      </c>
+      <c r="D178" s="47" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179">
         <f>A178+1</f>
         <v>178</v>
       </c>
-      <c r="C179" s="1">
-        <f>C178+1</f>
-        <v>207</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F179" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
+      <c r="B179" s="47">
+        <f>B178+1</f>
+        <v>5</v>
+      </c>
+      <c r="C179" s="47" t="n">
+        <v>229</v>
+      </c>
+      <c r="D179" s="47" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180">
         <f>A179+1</f>
         <v>179</v>
       </c>
-      <c r="C180" s="1">
-        <f>C179+1</f>
-        <v>208</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F180" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
+      <c r="B180" s="47">
+        <f>B179+1</f>
+        <v>6</v>
+      </c>
+      <c r="C180" s="47" t="n">
+        <v>230</v>
+      </c>
+      <c r="D180" s="47" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181">
         <f>A180+1</f>
         <v>180</v>
       </c>
-      <c r="C181" s="1">
-        <f>C180+1</f>
-        <v>209</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F181" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
+      <c r="B181" s="47">
+        <f>B180+1</f>
+        <v>7</v>
+      </c>
+      <c r="C181" s="47" t="n">
+        <v>231</v>
+      </c>
+      <c r="D181" s="47" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182">
         <f>A181+1</f>
         <v>181</v>
       </c>
-      <c r="C182" s="1">
-        <f>C181+1</f>
-        <v>210</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F182" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+      <c r="B182" s="47">
+        <f>B181+1</f>
+        <v>8</v>
+      </c>
+      <c r="C182" s="47" t="n">
+        <v>232</v>
+      </c>
+      <c r="D182" s="47" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183">
         <f>A182+1</f>
         <v>182</v>
       </c>
-      <c r="C183" s="1">
-        <f>C182+1</f>
-        <v>211</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G183" t="s">
-        <v>9</v>
-      </c>
-      <c r="H183" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+      <c r="B183" s="47">
+        <f>B182+1</f>
+        <v>9</v>
+      </c>
+      <c r="C183" s="47" t="n">
+        <v>233</v>
+      </c>
+      <c r="D183" s="47" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184">
         <f>A183+1</f>
         <v>183</v>
       </c>
-      <c r="B184" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C184" s="1">
-        <f>C183+1</f>
-        <v>212</v>
-      </c>
-      <c r="D184" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="G184" t="s">
-        <v>9</v>
-      </c>
-      <c r="H184" s="3" t="n">
+      <c r="B184" s="47" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:8">
+      <c r="C184" s="47" t="n">
+        <v>234</v>
+      </c>
+      <c r="D184" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185">
         <f>A184+1</f>
         <v>184</v>
       </c>
-      <c r="B185" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C185" s="1">
-        <f>C184+1</f>
-        <v>213</v>
-      </c>
-      <c r="D185" s="50" t="s">
-        <v>286</v>
-      </c>
-      <c r="G185" t="s">
-        <v>9</v>
-      </c>
-      <c r="H185" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+      <c r="B185" s="47">
+        <f>B184+1</f>
+        <v>2</v>
+      </c>
+      <c r="C185" s="47" t="n">
+        <v>235</v>
+      </c>
+      <c r="D185" s="47" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186">
         <f>A185+1</f>
         <v>185</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C186" s="1">
-        <f>C185+1</f>
-        <v>214</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="G186" t="s">
-        <v>9</v>
-      </c>
-      <c r="H186" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+      <c r="B186" s="47">
+        <f>B185+1</f>
+        <v>3</v>
+      </c>
+      <c r="C186" s="47" t="n">
+        <v>236</v>
+      </c>
+      <c r="D186" s="47" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187">
         <f>A186+1</f>
         <v>186</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C187" s="1">
-        <f>C186+1</f>
-        <v>215</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G187" t="s">
-        <v>9</v>
-      </c>
-      <c r="H187" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+      <c r="B187" s="47">
+        <f>B186+1</f>
+        <v>4</v>
+      </c>
+      <c r="C187" s="47" t="n">
+        <v>237</v>
+      </c>
+      <c r="D187" s="47" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188">
         <f>A187+1</f>
         <v>187</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C188" s="1">
-        <f>C187+1</f>
-        <v>216</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G188" t="s">
-        <v>9</v>
-      </c>
-      <c r="H188" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+      <c r="B188" s="47">
+        <f>B187+1</f>
+        <v>5</v>
+      </c>
+      <c r="C188" s="47" t="n">
+        <v>238</v>
+      </c>
+      <c r="D188" s="47" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189">
         <f>A188+1</f>
         <v>188</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C189" s="1">
-        <f>C188+1</f>
-        <v>217</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G189" t="s">
-        <v>9</v>
-      </c>
-      <c r="H189" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+      <c r="B189" s="47">
+        <f>B188+1</f>
+        <v>6</v>
+      </c>
+      <c r="C189" s="47" t="n">
+        <v>239</v>
+      </c>
+      <c r="D189" s="47" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190">
         <f>A189+1</f>
         <v>189</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C190" s="1">
-        <f>C189+1</f>
-        <v>218</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G190" t="s">
-        <v>9</v>
-      </c>
-      <c r="H190" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+      <c r="B190" s="47">
+        <f>B189+1</f>
+        <v>7</v>
+      </c>
+      <c r="C190" s="47" t="n">
+        <v>240</v>
+      </c>
+      <c r="D190" s="47" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191">
         <f>A190+1</f>
         <v>190</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C191" s="1">
-        <f>C190+1</f>
-        <v>219</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G191" t="s">
-        <v>9</v>
-      </c>
-      <c r="H191" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+      <c r="B191" s="47">
+        <f>B190+1</f>
+        <v>8</v>
+      </c>
+      <c r="C191" s="47" t="n">
+        <v>241</v>
+      </c>
+      <c r="D191" s="47" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192">
         <f>A191+1</f>
         <v>191</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C192" s="1">
-        <f>C191+1</f>
-        <v>220</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G192" t="s">
-        <v>9</v>
-      </c>
-      <c r="H192" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+      <c r="B192" s="47">
+        <f>B191+1</f>
+        <v>9</v>
+      </c>
+      <c r="C192" s="47" t="n">
+        <v>242</v>
+      </c>
+      <c r="D192" s="47" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193">
         <f>A192+1</f>
         <v>192</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C193" s="1">
-        <f>C192+1</f>
-        <v>221</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="G193" t="s">
-        <v>9</v>
-      </c>
-      <c r="H193" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+      <c r="B193" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C193" s="47" t="n">
+        <v>243</v>
+      </c>
+      <c r="D193" s="47" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194">
         <f>A193+1</f>
         <v>193</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C194" s="1">
-        <f>C193+1</f>
-        <v>222</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="G194" t="s">
-        <v>9</v>
-      </c>
-      <c r="H194" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+      <c r="B194" s="47">
+        <f>B193+1</f>
+        <v>2</v>
+      </c>
+      <c r="C194" s="47" t="n">
+        <v>244</v>
+      </c>
+      <c r="D194" s="47" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195">
         <f>A194+1</f>
         <v>194</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C195" s="1">
-        <f>C194+1</f>
-        <v>223</v>
-      </c>
-      <c r="D195" s="1" t="s">
+      <c r="B195" s="47">
+        <f>B194+1</f>
+        <v>3</v>
+      </c>
+      <c r="C195" s="47" t="n">
+        <v>245</v>
+      </c>
+      <c r="D195" s="47" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196">
+        <f>A195+1</f>
+        <v>195</v>
+      </c>
+      <c r="B196" s="47">
+        <f>B195+1</f>
+        <v>4</v>
+      </c>
+      <c r="C196" s="47" t="n">
+        <v>246</v>
+      </c>
+      <c r="D196" s="47" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197">
+        <f>A196+1</f>
+        <v>196</v>
+      </c>
+      <c r="B197" s="47">
+        <f>B196+1</f>
+        <v>5</v>
+      </c>
+      <c r="C197" s="47" t="n">
+        <v>247</v>
+      </c>
+      <c r="D197" s="47" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198">
+        <f>A197+1</f>
+        <v>197</v>
+      </c>
+      <c r="B198" s="47">
+        <f>B197+1</f>
+        <v>6</v>
+      </c>
+      <c r="C198" s="47" t="n">
+        <v>248</v>
+      </c>
+      <c r="D198" s="47" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199">
+        <f>A198+1</f>
+        <v>198</v>
+      </c>
+      <c r="B199" s="47">
+        <f>B198+1</f>
+        <v>7</v>
+      </c>
+      <c r="C199" s="47" t="n">
+        <v>249</v>
+      </c>
+      <c r="D199" s="47" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200">
+        <f>A199+1</f>
+        <v>199</v>
+      </c>
+      <c r="B200" s="47">
+        <f>B199+1</f>
+        <v>8</v>
+      </c>
+      <c r="C200" s="47" t="n">
+        <v>250</v>
+      </c>
+      <c r="D200" s="47" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201">
+        <f>A200+1</f>
+        <v>200</v>
+      </c>
+      <c r="B201" s="47">
+        <f>B200+1</f>
+        <v>9</v>
+      </c>
+      <c r="C201" s="47" t="n">
+        <v>251</v>
+      </c>
+      <c r="D201" s="47" t="s">
         <v>296</v>
       </c>
-      <c r="G195" t="s">
-        <v>9</v>
-      </c>
-      <c r="H195" s="3" t="n">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H201"/>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="3599" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1591713358" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6166,16 +6103,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="3599" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="3599" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="3599" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="3599" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1591713358" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1591713358" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1591713358" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1591713358" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="3599" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1591713358" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6197,7 +6134,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="3599" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1591713358" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6206,16 +6143,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="3599" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="3599" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="3599" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="3599" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1591713358" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1591713358" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1591713358" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1591713358" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="3599" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1591713358" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6237,7 +6174,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="3599" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1591713358" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6246,16 +6183,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="3599" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="3599" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="3599" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="3599" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1591713358" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1591713358" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1591713358" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1591713358" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="3599" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1591713358" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Software/Arduino/Projekte/snc98/Document/Switch_Calculator.xlsx
+++ b/Software/Arduino/Projekte/snc98/Document/Switch_Calculator.xlsx
@@ -18,17 +18,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1591713358" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1591713358" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" keepXLPalette="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1591713358" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1591713358"/>
+      <pm:revision xmlns:pm="smNativeData" day="1600628105" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1600628105" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" keepXLPalette="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1600628105" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1600628105"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="297">
   <si>
     <t>Ascii</t>
   </si>
@@ -950,7 +950,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -965,7 +965,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -980,7 +980,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="FFFFFF" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="FFFFFF" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -996,7 +996,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="333333" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="333333" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -1012,7 +1012,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="FF9900" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="FF9900" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -1027,7 +1027,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="333399" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="333399" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1043,7 +1043,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -1059,7 +1059,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="7F7F7F" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="7F7F7F" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default" i="1"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" i="1"/>
             <pm:ea face="SimSun" sz="220" lang="default" i="1"/>
@@ -1074,7 +1074,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="007F00" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="007F00" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1089,7 +1089,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="993300" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="993300" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1104,7 +1104,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="7F007F" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="7F007F" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1120,7 +1120,7 @@
       <sz val="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="003366" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="003366" ulstyle="none">
             <pm:latin face="Cambria" sz="360" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="360" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="360" lang="default" weight="bold"/>
@@ -1136,7 +1136,7 @@
       <sz val="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="003366" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="003366" ulstyle="none">
             <pm:latin face="Calibri" sz="300" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="300" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="300" lang="default" weight="bold"/>
@@ -1152,7 +1152,7 @@
       <sz val="13"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="003366" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="003366" ulstyle="none">
             <pm:latin face="Calibri" sz="260" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="260" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="260" lang="default" weight="bold"/>
@@ -1168,7 +1168,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="003366" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="003366" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -1183,7 +1183,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="FF9900" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="FF9900" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1198,7 +1198,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="FF0000" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="FF0000" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1214,7 +1214,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1591713358" fgClr="FFFFFF" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="FFFFFF" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -1236,7 +1236,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00CCCCFF" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00CCCCFF" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1247,7 +1247,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00FF99CC" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00FF99CC" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1258,7 +1258,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00CCFFCC" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00CCFFCC" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1269,7 +1269,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00CC99FF" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00CC99FF" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1280,7 +1280,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1291,7 +1291,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1302,7 +1302,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="0099CCFF" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="0099CCFF" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1313,7 +1313,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00FF8080" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00FF8080" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1324,7 +1324,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1335,7 +1335,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00FFCC00" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00FFCC00" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1346,7 +1346,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="000066CC" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="000066CC" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1357,7 +1357,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="007F007F" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="007F007F" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1368,7 +1368,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="0033CCCC" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="0033CCCC" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1379,7 +1379,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00FF9900" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00FF9900" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1390,7 +1390,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00333399" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00333399" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1401,7 +1401,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1412,7 +1412,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00339966" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00339966" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1423,7 +1423,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00FF6600" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00FF6600" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1434,7 +1434,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00C0C0C0" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00C0C0C0" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1445,7 +1445,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00C0C0C0" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00C0C0C0" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1456,7 +1456,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1470,7 +1470,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00FFFF99" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00FFFF99" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1481,7 +1481,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1504,7 +1504,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00999999" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00999999" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1515,7 +1515,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591713358" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1537,7 +1537,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
+          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
         </ext>
       </extLst>
     </border>
@@ -1556,7 +1556,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
+          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
         </ext>
       </extLst>
     </border>
@@ -1575,7 +1575,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
+          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
         </ext>
       </extLst>
     </border>
@@ -1594,7 +1594,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
+          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
         </ext>
       </extLst>
     </border>
@@ -1613,7 +1613,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
+          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
         </ext>
       </extLst>
     </border>
@@ -1632,7 +1632,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
+          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
         </ext>
       </extLst>
     </border>
@@ -1651,7 +1651,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
+          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
         </ext>
       </extLst>
     </border>
@@ -1670,7 +1670,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
+          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
         </ext>
       </extLst>
     </border>
@@ -1689,7 +1689,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
+          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
         </ext>
       </extLst>
     </border>
@@ -1708,7 +1708,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
+          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
         </ext>
       </extLst>
     </border>
@@ -1727,7 +1727,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
+          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
         </ext>
       </extLst>
     </border>
@@ -1746,7 +1746,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
+          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
         </ext>
       </extLst>
     </border>
@@ -1765,7 +1765,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
+          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
         </ext>
       </extLst>
     </border>
@@ -1784,7 +1784,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
+          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
         </ext>
       </extLst>
     </border>
@@ -1803,7 +1803,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
+          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
         </ext>
       </extLst>
     </border>
@@ -1822,7 +1822,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
+          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
         </ext>
       </extLst>
     </border>
@@ -1841,7 +1841,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
+          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
         </ext>
       </extLst>
     </border>
@@ -1860,7 +1860,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
+          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
         </ext>
       </extLst>
     </border>
@@ -1879,7 +1879,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
+          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
         </ext>
       </extLst>
     </border>
@@ -1898,7 +1898,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358">
+          <pm:border xmlns:pm="smNativeData" id="1600628105">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="333333"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="333333"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="333333"/>
@@ -1922,7 +1922,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358">
+          <pm:border xmlns:pm="smNativeData" id="1600628105">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -1946,7 +1946,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358">
+          <pm:border xmlns:pm="smNativeData" id="1600628105">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -1970,7 +1970,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358">
+          <pm:border xmlns:pm="smNativeData" id="1600628105">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="333399"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="333399"/>
           </pm:border>
@@ -1992,7 +1992,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
+          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
         </ext>
       </extLst>
     </border>
@@ -2011,7 +2011,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358">
+          <pm:border xmlns:pm="smNativeData" id="1600628105">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="C0C0C0"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="C0C0C0"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="C0C0C0"/>
@@ -2035,7 +2035,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358">
+          <pm:border xmlns:pm="smNativeData" id="1600628105">
             <pm:line position="bottom" type="1" style="0" width="50" dist="20" width2="20" rgb="333399"/>
           </pm:border>
         </ext>
@@ -2056,7 +2056,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358">
+          <pm:border xmlns:pm="smNativeData" id="1600628105">
             <pm:line position="bottom" type="1" style="0" width="50" dist="20" width2="20" rgb="C0C0C0"/>
           </pm:border>
         </ext>
@@ -2077,7 +2077,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358">
+          <pm:border xmlns:pm="smNativeData" id="1600628105">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="0066CC"/>
           </pm:border>
         </ext>
@@ -2098,7 +2098,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358">
+          <pm:border xmlns:pm="smNativeData" id="1600628105">
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="FF9900"/>
           </pm:border>
         </ext>
@@ -2119,7 +2119,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358">
+          <pm:border xmlns:pm="smNativeData" id="1600628105">
             <pm:line position="top" type="2" style="0" width="20" dist="20" width2="20" rgb="333333"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="333333"/>
             <pm:line position="left" type="2" style="0" width="20" dist="20" width2="20" rgb="333333"/>
@@ -2143,7 +2143,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591713358"/>
+          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
         </ext>
       </extLst>
     </border>
@@ -2311,10 +2311,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1591713358" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1600628105" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1591713358" count="28">
+      <pm:colors xmlns:pm="smNativeData" id="1600628105" count="28">
         <pm:color name="Immergrün" rgb="9999FF"/>
         <pm:color name="Pflaume" rgb="993366"/>
         <pm:color name="Elfenbein" rgb="FFFFCC"/>
@@ -2618,8 +2618,8 @@
   <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" zoomScale="93" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B88" sqref="B88"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F204" sqref="F204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.000000" defaultRowHeight="15.40"/>
@@ -5660,7 +5660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:6">
       <c r="A175">
         <f>A174+1</f>
         <v>174</v>
@@ -5674,8 +5674,11 @@
       <c r="D175" s="47" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="F175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176">
         <f>A175+1</f>
         <v>175</v>
@@ -5690,8 +5693,11 @@
       <c r="D176" s="47" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="F176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177">
         <f>A176+1</f>
         <v>176</v>
@@ -5706,8 +5712,11 @@
       <c r="D177" s="47" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="178" spans="1:4">
+      <c r="F177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178">
         <f>A177+1</f>
         <v>177</v>
@@ -5722,8 +5731,11 @@
       <c r="D178" s="47" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="F178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179">
         <f>A178+1</f>
         <v>178</v>
@@ -5738,8 +5750,11 @@
       <c r="D179" s="47" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="180" spans="1:4">
+      <c r="F179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180">
         <f>A179+1</f>
         <v>179</v>
@@ -5754,8 +5769,11 @@
       <c r="D180" s="47" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="181" spans="1:4">
+      <c r="F180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181">
         <f>A180+1</f>
         <v>180</v>
@@ -5770,8 +5788,11 @@
       <c r="D181" s="47" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="182" spans="1:4">
+      <c r="F181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182">
         <f>A181+1</f>
         <v>181</v>
@@ -5786,8 +5807,11 @@
       <c r="D182" s="47" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="183" spans="1:4">
+      <c r="F182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183">
         <f>A182+1</f>
         <v>182</v>
@@ -5802,8 +5826,11 @@
       <c r="D183" s="47" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="184" spans="1:4">
+      <c r="F183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184">
         <f>A183+1</f>
         <v>183</v>
@@ -5817,8 +5844,11 @@
       <c r="D184" s="47" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="185" spans="1:4">
+      <c r="F184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185">
         <f>A184+1</f>
         <v>184</v>
@@ -5833,8 +5863,11 @@
       <c r="D185" s="47" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="186" spans="1:4">
+      <c r="F185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186">
         <f>A185+1</f>
         <v>185</v>
@@ -5849,8 +5882,11 @@
       <c r="D186" s="47" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="187" spans="1:4">
+      <c r="F186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187">
         <f>A186+1</f>
         <v>186</v>
@@ -5865,8 +5901,11 @@
       <c r="D187" s="47" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="188" spans="1:4">
+      <c r="F187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188">
         <f>A187+1</f>
         <v>187</v>
@@ -5881,8 +5920,11 @@
       <c r="D188" s="47" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="189" spans="1:4">
+      <c r="F188" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189">
         <f>A188+1</f>
         <v>188</v>
@@ -5897,8 +5939,11 @@
       <c r="D189" s="47" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="F189" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190">
         <f>A189+1</f>
         <v>189</v>
@@ -5913,8 +5958,11 @@
       <c r="D190" s="47" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="191" spans="1:4">
+      <c r="F190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191">
         <f>A190+1</f>
         <v>190</v>
@@ -5929,8 +5977,11 @@
       <c r="D191" s="47" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
+      <c r="F191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192">
         <f>A191+1</f>
         <v>191</v>
@@ -5945,8 +5996,11 @@
       <c r="D192" s="47" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="F192" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193">
         <f>A192+1</f>
         <v>192</v>
@@ -5960,8 +6014,11 @@
       <c r="D193" s="47" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="F193" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194">
         <f>A193+1</f>
         <v>193</v>
@@ -5976,8 +6033,11 @@
       <c r="D194" s="47" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="F194" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195">
         <f>A194+1</f>
         <v>194</v>
@@ -5992,8 +6052,11 @@
       <c r="D195" s="47" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="F195" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196">
         <f>A195+1</f>
         <v>195</v>
@@ -6008,8 +6071,11 @@
       <c r="D196" s="47" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="F196" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197">
         <f>A196+1</f>
         <v>196</v>
@@ -6024,8 +6090,11 @@
       <c r="D197" s="47" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="F197" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198">
         <f>A197+1</f>
         <v>197</v>
@@ -6040,8 +6109,11 @@
       <c r="D198" s="47" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
+      <c r="F198" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199">
         <f>A198+1</f>
         <v>198</v>
@@ -6056,8 +6128,11 @@
       <c r="D199" s="47" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="200" spans="1:4">
+      <c r="F199" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200">
         <f>A199+1</f>
         <v>199</v>
@@ -6072,8 +6147,11 @@
       <c r="D200" s="47" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="201" spans="1:4">
+      <c r="F200" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201">
         <f>A200+1</f>
         <v>200</v>
@@ -6087,6 +6165,9 @@
       </c>
       <c r="D201" s="47" t="s">
         <v>296</v>
+      </c>
+      <c r="F201" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -6094,7 +6175,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1591713358" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1600628105" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6103,16 +6184,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1591713358" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1591713358" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1591713358" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1591713358" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1600628105" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1600628105" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1600628105" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1600628105" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1591713358" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1600628105" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6134,7 +6215,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1591713358" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1600628105" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6143,16 +6224,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1591713358" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1591713358" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1591713358" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1591713358" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1600628105" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1600628105" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1600628105" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1600628105" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1591713358" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1600628105" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6174,7 +6255,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1591713358" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1600628105" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6183,16 +6264,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1591713358" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1591713358" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1591713358" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1591713358" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1600628105" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1600628105" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1600628105" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1600628105" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1591713358" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1600628105" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Software/Arduino/Projekte/snc98/Document/Switch_Calculator.xlsx
+++ b/Software/Arduino/Projekte/snc98/Document/Switch_Calculator.xlsx
@@ -18,17 +18,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1600628105" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1600628105" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" keepXLPalette="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1600628105" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1600628105"/>
+      <pm:revision xmlns:pm="smNativeData" day="1604610075" val="1020" rev="124" rev64="64" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1604610075" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" keepXLPalette="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1604610075" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1604610075"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="301">
   <si>
     <t>Ascii</t>
   </si>
@@ -919,6 +919,18 @@
   </si>
   <si>
     <t>M-div(9)</t>
+  </si>
+  <si>
+    <t>M+()</t>
+  </si>
+  <si>
+    <t>M-()</t>
+  </si>
+  <si>
+    <t>Mx()</t>
+  </si>
+  <si>
+    <t>M/()</t>
   </si>
 </sst>
 </file>
@@ -950,7 +962,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -965,7 +977,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -980,7 +992,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="FFFFFF" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="FFFFFF" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -996,7 +1008,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="333333" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="333333" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -1012,7 +1024,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="FF9900" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="FF9900" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -1027,7 +1039,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="333399" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="333399" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1043,7 +1055,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -1059,7 +1071,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="7F7F7F" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="7F7F7F" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default" i="1"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" i="1"/>
             <pm:ea face="SimSun" sz="220" lang="default" i="1"/>
@@ -1074,7 +1086,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="007F00" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="007F00" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1089,7 +1101,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="993300" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="993300" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1104,7 +1116,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="7F007F" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="7F007F" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1120,7 +1132,7 @@
       <sz val="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="003366" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="003366" ulstyle="none">
             <pm:latin face="Cambria" sz="360" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="360" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="360" lang="default" weight="bold"/>
@@ -1136,7 +1148,7 @@
       <sz val="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="003366" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="003366" ulstyle="none">
             <pm:latin face="Calibri" sz="300" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="300" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="300" lang="default" weight="bold"/>
@@ -1152,7 +1164,7 @@
       <sz val="13"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="003366" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="003366" ulstyle="none">
             <pm:latin face="Calibri" sz="260" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="260" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="260" lang="default" weight="bold"/>
@@ -1168,7 +1180,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="003366" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="003366" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -1183,7 +1195,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="FF9900" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="FF9900" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1198,7 +1210,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="FF0000" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="FF0000" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1214,7 +1226,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1600628105" fgClr="FFFFFF" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="FFFFFF" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -1236,7 +1248,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00CCCCFF" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00CCCCFF" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1247,7 +1259,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00FF99CC" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00FF99CC" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1258,7 +1270,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00CCFFCC" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00CCFFCC" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1269,7 +1281,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00CC99FF" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00CC99FF" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1280,7 +1292,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1291,7 +1303,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1302,7 +1314,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="0099CCFF" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="0099CCFF" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1313,7 +1325,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00FF8080" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00FF8080" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1324,7 +1336,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1335,7 +1347,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00FFCC00" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00FFCC00" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1346,7 +1358,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="000066CC" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="000066CC" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1357,7 +1369,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="007F007F" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="007F007F" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1368,7 +1380,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="0033CCCC" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="0033CCCC" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1379,7 +1391,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00FF9900" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00FF9900" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1390,7 +1402,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00333399" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00333399" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1401,7 +1413,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1412,7 +1424,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00339966" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00339966" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1423,7 +1435,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00FF6600" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00FF6600" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1434,7 +1446,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00C0C0C0" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00C0C0C0" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1445,7 +1457,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00C0C0C0" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00C0C0C0" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1456,7 +1468,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1470,7 +1482,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00FFFF99" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00FFFF99" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1481,7 +1493,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1504,7 +1516,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00999999" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00999999" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1515,7 +1527,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1600628105" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1537,7 +1549,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
+          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
         </ext>
       </extLst>
     </border>
@@ -1556,7 +1568,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
+          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
         </ext>
       </extLst>
     </border>
@@ -1575,7 +1587,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
+          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
         </ext>
       </extLst>
     </border>
@@ -1594,7 +1606,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
+          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
         </ext>
       </extLst>
     </border>
@@ -1613,7 +1625,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
+          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
         </ext>
       </extLst>
     </border>
@@ -1632,7 +1644,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
+          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
         </ext>
       </extLst>
     </border>
@@ -1651,7 +1663,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
+          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
         </ext>
       </extLst>
     </border>
@@ -1670,7 +1682,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
+          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
         </ext>
       </extLst>
     </border>
@@ -1689,7 +1701,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
+          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
         </ext>
       </extLst>
     </border>
@@ -1708,7 +1720,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
+          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
         </ext>
       </extLst>
     </border>
@@ -1727,7 +1739,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
+          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
         </ext>
       </extLst>
     </border>
@@ -1746,7 +1758,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
+          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
         </ext>
       </extLst>
     </border>
@@ -1765,7 +1777,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
+          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
         </ext>
       </extLst>
     </border>
@@ -1784,7 +1796,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
+          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
         </ext>
       </extLst>
     </border>
@@ -1803,7 +1815,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
+          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
         </ext>
       </extLst>
     </border>
@@ -1822,7 +1834,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
+          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
         </ext>
       </extLst>
     </border>
@@ -1841,7 +1853,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
+          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
         </ext>
       </extLst>
     </border>
@@ -1860,7 +1872,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
+          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
         </ext>
       </extLst>
     </border>
@@ -1879,7 +1891,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
+          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
         </ext>
       </extLst>
     </border>
@@ -1898,7 +1910,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105">
+          <pm:border xmlns:pm="smNativeData" id="1604610075">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="333333"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="333333"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="333333"/>
@@ -1922,7 +1934,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105">
+          <pm:border xmlns:pm="smNativeData" id="1604610075">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -1946,7 +1958,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105">
+          <pm:border xmlns:pm="smNativeData" id="1604610075">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -1970,7 +1982,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105">
+          <pm:border xmlns:pm="smNativeData" id="1604610075">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="333399"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="333399"/>
           </pm:border>
@@ -1992,7 +2004,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
+          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
         </ext>
       </extLst>
     </border>
@@ -2011,7 +2023,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105">
+          <pm:border xmlns:pm="smNativeData" id="1604610075">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="C0C0C0"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="C0C0C0"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="C0C0C0"/>
@@ -2035,7 +2047,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105">
+          <pm:border xmlns:pm="smNativeData" id="1604610075">
             <pm:line position="bottom" type="1" style="0" width="50" dist="20" width2="20" rgb="333399"/>
           </pm:border>
         </ext>
@@ -2056,7 +2068,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105">
+          <pm:border xmlns:pm="smNativeData" id="1604610075">
             <pm:line position="bottom" type="1" style="0" width="50" dist="20" width2="20" rgb="C0C0C0"/>
           </pm:border>
         </ext>
@@ -2077,7 +2089,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105">
+          <pm:border xmlns:pm="smNativeData" id="1604610075">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="0066CC"/>
           </pm:border>
         </ext>
@@ -2098,7 +2110,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105">
+          <pm:border xmlns:pm="smNativeData" id="1604610075">
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="FF9900"/>
           </pm:border>
         </ext>
@@ -2119,7 +2131,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105">
+          <pm:border xmlns:pm="smNativeData" id="1604610075">
             <pm:line position="top" type="2" style="0" width="20" dist="20" width2="20" rgb="333333"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="333333"/>
             <pm:line position="left" type="2" style="0" width="20" dist="20" width2="20" rgb="333333"/>
@@ -2143,7 +2155,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1600628105"/>
+          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
         </ext>
       </extLst>
     </border>
@@ -2311,10 +2323,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1600628105" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1604610075" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1600628105" count="28">
+      <pm:colors xmlns:pm="smNativeData" id="1604610075" count="28">
         <pm:color name="Immergrün" rgb="9999FF"/>
         <pm:color name="Pflaume" rgb="993366"/>
         <pm:color name="Elfenbein" rgb="FFFFCC"/>
@@ -2615,11 +2627,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:H205"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" zoomScale="93" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F204" sqref="F204"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B183" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.000000" defaultRowHeight="15.40"/>
@@ -6170,12 +6182,72 @@
         <v>9</v>
       </c>
     </row>
+    <row r="202" spans="1:6">
+      <c r="A202">
+        <f>A201+1</f>
+        <v>201</v>
+      </c>
+      <c r="C202" s="47" t="n">
+        <v>252</v>
+      </c>
+      <c r="D202" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="F202" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203">
+        <f>A202+1</f>
+        <v>202</v>
+      </c>
+      <c r="C203" s="47" t="n">
+        <v>253</v>
+      </c>
+      <c r="D203" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="F203" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204">
+        <f>A203+1</f>
+        <v>203</v>
+      </c>
+      <c r="C204" s="47" t="n">
+        <v>254</v>
+      </c>
+      <c r="D204" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="F204" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205">
+        <f>A204+1</f>
+        <v>204</v>
+      </c>
+      <c r="C205" s="47" t="n">
+        <v>255</v>
+      </c>
+      <c r="D205" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="F205" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H201"/>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1600628105" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1604610075" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6184,16 +6256,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1600628105" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1600628105" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1600628105" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1600628105" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1604610075" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1604610075" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1604610075" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1604610075" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1600628105" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1604610075" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6215,7 +6287,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1600628105" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1604610075" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6224,16 +6296,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1600628105" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1600628105" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1600628105" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1600628105" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1604610075" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1604610075" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1604610075" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1604610075" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1600628105" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1604610075" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6255,7 +6327,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1600628105" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1604610075" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6264,16 +6336,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1600628105" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1600628105" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1600628105" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1600628105" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1604610075" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1604610075" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1604610075" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1604610075" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1600628105" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1604610075" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Software/Arduino/Projekte/snc98/Document/Switch_Calculator.xlsx
+++ b/Software/Arduino/Projekte/snc98/Document/Switch_Calculator.xlsx
@@ -13,22 +13,22 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$212</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1604610075" val="1020" rev="124" rev64="64" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1604610075" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" keepXLPalette="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1604610075" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1604610075"/>
+      <pm:revision xmlns:pm="smNativeData" day="1608758811" val="1024" rev="124" rev64="64" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1608758811" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" keepXLPalette="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1608758811" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1608758811"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="307">
   <si>
     <t>Ascii</t>
   </si>
@@ -450,6 +450,24 @@
     <t>FIX_E24</t>
   </si>
   <si>
+    <t>M+()</t>
+  </si>
+  <si>
+    <t>M-()</t>
+  </si>
+  <si>
+    <t>Mx()</t>
+  </si>
+  <si>
+    <t>M/()</t>
+  </si>
+  <si>
+    <t>Mr()</t>
+  </si>
+  <si>
+    <t>M_()</t>
+  </si>
+  <si>
     <t>p</t>
   </si>
   <si>
@@ -921,16 +939,16 @@
     <t>M-div(9)</t>
   </si>
   <si>
-    <t>M+()</t>
-  </si>
-  <si>
-    <t>M-()</t>
-  </si>
-  <si>
-    <t>Mx()</t>
-  </si>
-  <si>
-    <t>M/()</t>
+    <t>_+(%)_</t>
+  </si>
+  <si>
+    <t>_-(%)_</t>
+  </si>
+  <si>
+    <t>_*(%)_</t>
+  </si>
+  <si>
+    <t>_/(%)_</t>
   </si>
 </sst>
 </file>
@@ -962,7 +980,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1608758811" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -977,7 +995,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1608758811" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -992,7 +1010,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="FFFFFF" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1608758811" fgClr="FFFFFF" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1008,7 +1026,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="333333" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1608758811" fgClr="333333" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -1024,7 +1042,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="FF9900" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1608758811" fgClr="FF9900" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -1039,7 +1057,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="333399" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1608758811" fgClr="333399" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1055,7 +1073,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1608758811" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -1071,7 +1089,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="7F7F7F" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1608758811" fgClr="7F7F7F" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default" i="1"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" i="1"/>
             <pm:ea face="SimSun" sz="220" lang="default" i="1"/>
@@ -1086,7 +1104,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="007F00" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1608758811" fgClr="007F00" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1101,7 +1119,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="993300" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1608758811" fgClr="993300" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1116,7 +1134,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="7F007F" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1608758811" fgClr="7F007F" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1132,7 +1150,7 @@
       <sz val="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="003366" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1608758811" fgClr="003366" ulstyle="none">
             <pm:latin face="Cambria" sz="360" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="360" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="360" lang="default" weight="bold"/>
@@ -1148,7 +1166,7 @@
       <sz val="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="003366" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1608758811" fgClr="003366" ulstyle="none">
             <pm:latin face="Calibri" sz="300" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="300" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="300" lang="default" weight="bold"/>
@@ -1164,7 +1182,7 @@
       <sz val="13"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="003366" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1608758811" fgClr="003366" ulstyle="none">
             <pm:latin face="Calibri" sz="260" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="260" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="260" lang="default" weight="bold"/>
@@ -1180,7 +1198,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="003366" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1608758811" fgClr="003366" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -1195,7 +1213,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="FF9900" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1608758811" fgClr="FF9900" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1210,7 +1228,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="FF0000" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1608758811" fgClr="FF0000" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -1226,7 +1244,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1604610075" fgClr="FFFFFF" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1608758811" fgClr="FFFFFF" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -1235,7 +1253,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1248,7 +1266,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00CCCCFF" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1608758811" type="1" fgLvl="100" fgClr="00CCCCFF" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1259,7 +1277,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00FF99CC" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1608758811" type="1" fgLvl="100" fgClr="00FF99CC" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1270,7 +1288,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00CCFFCC" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1608758811" type="1" fgLvl="100" fgClr="00CCFFCC" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1281,7 +1299,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00CC99FF" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1608758811" type="1" fgLvl="100" fgClr="00CC99FF" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1292,7 +1310,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1608758811" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1303,7 +1321,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1608758811" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1314,7 +1332,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="0099CCFF" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1608758811" type="1" fgLvl="100" fgClr="0099CCFF" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1325,7 +1343,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00FF8080" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1608758811" type="1" fgLvl="100" fgClr="00FF8080" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1336,7 +1354,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1608758811" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1347,7 +1365,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00FFCC00" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1608758811" type="1" fgLvl="100" fgClr="00FFCC00" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1358,7 +1376,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="000066CC" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1608758811" type="1" fgLvl="100" fgClr="000066CC" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1369,7 +1387,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="007F007F" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1608758811" type="1" fgLvl="100" fgClr="007F007F" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1380,7 +1398,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="0033CCCC" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1608758811" type="1" fgLvl="100" fgClr="0033CCCC" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1391,7 +1409,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00FF9900" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1608758811" type="1" fgLvl="100" fgClr="00FF9900" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1402,7 +1420,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00333399" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1608758811" type="1" fgLvl="100" fgClr="00333399" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1413,7 +1431,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1608758811" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1424,7 +1442,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00339966" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1608758811" type="1" fgLvl="100" fgClr="00339966" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1435,7 +1453,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00FF6600" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1608758811" type="1" fgLvl="100" fgClr="00FF6600" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1446,7 +1464,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00C0C0C0" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1608758811" type="1" fgLvl="100" fgClr="00C0C0C0" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1457,7 +1475,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00C0C0C0" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1608758811" type="1" fgLvl="100" fgClr="00C0C0C0" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1468,7 +1486,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1608758811" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1482,7 +1500,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00FFFF99" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1608758811" type="1" fgLvl="100" fgClr="00FFFF99" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1493,7 +1511,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="100" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1608758811" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1516,24 +1534,13 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00999999" bgLvl="100" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1604610075" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1608758811" type="1" fgLvl="100" fgClr="00999999" bgLvl="100" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -1549,7 +1556,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
+          <pm:border xmlns:pm="smNativeData" id="1608758811"/>
         </ext>
       </extLst>
     </border>
@@ -1568,7 +1575,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
+          <pm:border xmlns:pm="smNativeData" id="1608758811"/>
         </ext>
       </extLst>
     </border>
@@ -1587,7 +1594,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
+          <pm:border xmlns:pm="smNativeData" id="1608758811"/>
         </ext>
       </extLst>
     </border>
@@ -1606,7 +1613,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
+          <pm:border xmlns:pm="smNativeData" id="1608758811"/>
         </ext>
       </extLst>
     </border>
@@ -1625,7 +1632,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
+          <pm:border xmlns:pm="smNativeData" id="1608758811"/>
         </ext>
       </extLst>
     </border>
@@ -1644,7 +1651,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
+          <pm:border xmlns:pm="smNativeData" id="1608758811"/>
         </ext>
       </extLst>
     </border>
@@ -1663,7 +1670,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
+          <pm:border xmlns:pm="smNativeData" id="1608758811"/>
         </ext>
       </extLst>
     </border>
@@ -1682,7 +1689,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
+          <pm:border xmlns:pm="smNativeData" id="1608758811"/>
         </ext>
       </extLst>
     </border>
@@ -1701,7 +1708,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
+          <pm:border xmlns:pm="smNativeData" id="1608758811"/>
         </ext>
       </extLst>
     </border>
@@ -1720,7 +1727,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
+          <pm:border xmlns:pm="smNativeData" id="1608758811"/>
         </ext>
       </extLst>
     </border>
@@ -1739,7 +1746,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
+          <pm:border xmlns:pm="smNativeData" id="1608758811"/>
         </ext>
       </extLst>
     </border>
@@ -1758,7 +1765,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
+          <pm:border xmlns:pm="smNativeData" id="1608758811"/>
         </ext>
       </extLst>
     </border>
@@ -1777,7 +1784,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
+          <pm:border xmlns:pm="smNativeData" id="1608758811"/>
         </ext>
       </extLst>
     </border>
@@ -1796,7 +1803,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
+          <pm:border xmlns:pm="smNativeData" id="1608758811"/>
         </ext>
       </extLst>
     </border>
@@ -1815,7 +1822,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
+          <pm:border xmlns:pm="smNativeData" id="1608758811"/>
         </ext>
       </extLst>
     </border>
@@ -1834,7 +1841,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
+          <pm:border xmlns:pm="smNativeData" id="1608758811"/>
         </ext>
       </extLst>
     </border>
@@ -1853,7 +1860,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
+          <pm:border xmlns:pm="smNativeData" id="1608758811"/>
         </ext>
       </extLst>
     </border>
@@ -1872,7 +1879,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
+          <pm:border xmlns:pm="smNativeData" id="1608758811"/>
         </ext>
       </extLst>
     </border>
@@ -1891,7 +1898,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
+          <pm:border xmlns:pm="smNativeData" id="1608758811"/>
         </ext>
       </extLst>
     </border>
@@ -1910,7 +1917,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075">
+          <pm:border xmlns:pm="smNativeData" id="1608758811">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="333333"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="333333"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="333333"/>
@@ -1934,7 +1941,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075">
+          <pm:border xmlns:pm="smNativeData" id="1608758811">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -1958,7 +1965,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075">
+          <pm:border xmlns:pm="smNativeData" id="1608758811">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -1982,7 +1989,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075">
+          <pm:border xmlns:pm="smNativeData" id="1608758811">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="333399"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="333399"/>
           </pm:border>
@@ -2004,7 +2011,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
+          <pm:border xmlns:pm="smNativeData" id="1608758811"/>
         </ext>
       </extLst>
     </border>
@@ -2023,7 +2030,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075">
+          <pm:border xmlns:pm="smNativeData" id="1608758811">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="C0C0C0"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="C0C0C0"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="C0C0C0"/>
@@ -2047,7 +2054,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075">
+          <pm:border xmlns:pm="smNativeData" id="1608758811">
             <pm:line position="bottom" type="1" style="0" width="50" dist="20" width2="20" rgb="333399"/>
           </pm:border>
         </ext>
@@ -2068,7 +2075,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075">
+          <pm:border xmlns:pm="smNativeData" id="1608758811">
             <pm:line position="bottom" type="1" style="0" width="50" dist="20" width2="20" rgb="C0C0C0"/>
           </pm:border>
         </ext>
@@ -2089,7 +2096,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075">
+          <pm:border xmlns:pm="smNativeData" id="1608758811">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="0066CC"/>
           </pm:border>
         </ext>
@@ -2110,7 +2117,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075">
+          <pm:border xmlns:pm="smNativeData" id="1608758811">
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="FF9900"/>
           </pm:border>
         </ext>
@@ -2131,31 +2138,12 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075">
+          <pm:border xmlns:pm="smNativeData" id="1608758811">
             <pm:line position="top" type="2" style="0" width="20" dist="20" width2="20" rgb="333333"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="333333"/>
             <pm:line position="left" type="2" style="0" width="20" dist="20" width2="20" rgb="333333"/>
             <pm:line position="right" type="2" style="0" width="20" dist="20" width2="20" rgb="333333"/>
           </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604610075"/>
         </ext>
       </extLst>
     </border>
@@ -2323,10 +2311,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1604610075" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1608758811" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1604610075" count="28">
+      <pm:colors xmlns:pm="smNativeData" id="1608758811" count="28">
         <pm:color name="Immergrün" rgb="9999FF"/>
         <pm:color name="Pflaume" rgb="993366"/>
         <pm:color name="Elfenbein" rgb="FFFFCC"/>
@@ -2627,11 +2615,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H205"/>
+  <dimension ref="A1:H220"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" zoomScale="93" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B183" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B206" sqref="B206"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B209" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C221" sqref="C221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.000000" defaultRowHeight="15.40"/>
@@ -3985,14 +3973,11 @@
         <f>A74+1</f>
         <v>74</v>
       </c>
-      <c r="B75" s="47" t="s">
+      <c r="C75" s="47" t="n">
+        <v>103</v>
+      </c>
+      <c r="D75" s="47" t="s">
         <v>140</v>
-      </c>
-      <c r="C75" s="47" t="n">
-        <v>112</v>
-      </c>
-      <c r="D75" s="47" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4000,44 +3985,44 @@
         <f>A75+1</f>
         <v>75</v>
       </c>
-      <c r="B76" s="47" t="s">
-        <v>142</v>
-      </c>
       <c r="C76" s="47" t="n">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D76" s="47" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77">
         <f>A76+1</f>
         <v>76</v>
       </c>
-      <c r="B77" s="47" t="s">
-        <v>144</v>
-      </c>
       <c r="C77" s="47" t="n">
-        <v>114</v>
-      </c>
-      <c r="D77" s="50" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>105</v>
+      </c>
+      <c r="D77" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="F77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <f>A77+1</f>
         <v>77</v>
       </c>
-      <c r="B78" s="47" t="s">
-        <v>146</v>
-      </c>
       <c r="C78" s="47" t="n">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D78" s="47" t="s">
-        <v>147</v>
+        <v>143</v>
+      </c>
+      <c r="F78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4045,245 +4030,194 @@
         <f>A78+1</f>
         <v>78</v>
       </c>
-      <c r="B79" s="47" t="s">
-        <v>148</v>
-      </c>
       <c r="C79" s="47" t="n">
-        <v>116</v>
-      </c>
-      <c r="D79" s="50" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>107</v>
+      </c>
+      <c r="D79" s="47" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80">
         <f>A79+1</f>
         <v>79</v>
       </c>
-      <c r="B80" s="47" t="s">
-        <v>150</v>
-      </c>
       <c r="C80" s="47" t="n">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D80" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="F80" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81">
         <f>A80+1</f>
         <v>80</v>
       </c>
-      <c r="B81" s="47" t="s">
-        <v>152</v>
-      </c>
       <c r="C81" s="47" t="n">
-        <v>118</v>
-      </c>
-      <c r="D81" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="F81" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82">
         <f>A81+1</f>
         <v>81</v>
       </c>
-      <c r="B82" s="47" t="s">
-        <v>154</v>
-      </c>
       <c r="C82" s="47" t="n">
-        <v>119</v>
-      </c>
-      <c r="D82" s="47" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83">
         <f>A82+1</f>
         <v>82</v>
       </c>
-      <c r="B83" s="47" t="s">
-        <v>9</v>
-      </c>
       <c r="C83" s="47" t="n">
-        <v>120</v>
-      </c>
-      <c r="D83" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="F83" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84">
         <f>A83+1</f>
         <v>83</v>
       </c>
       <c r="B84" s="47" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C84" s="47" t="n">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D84" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="F84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85">
         <f>A84+1</f>
         <v>84</v>
       </c>
       <c r="B85" s="47" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C85" s="47" t="n">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D85" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="F85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86">
         <f>A85+1</f>
         <v>85</v>
       </c>
       <c r="B86" s="47" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C86" s="47" t="n">
-        <v>123</v>
-      </c>
-      <c r="D86" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="F86" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="D86" s="50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87">
         <f>A86+1</f>
         <v>86</v>
       </c>
       <c r="B87" s="47" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C87" s="47" t="n">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="G87" t="s">
-        <v>9</v>
-      </c>
-      <c r="H87" s="49" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88">
         <f>A87+1</f>
         <v>87</v>
       </c>
       <c r="B88" s="47" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C88" s="47" t="n">
-        <v>125</v>
-      </c>
-      <c r="D88" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="F88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>116</v>
+      </c>
+      <c r="D88" s="50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89">
         <f>A88+1</f>
         <v>88</v>
       </c>
       <c r="B89" s="47" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C89" s="47" t="n">
-        <v>126</v>
-      </c>
-      <c r="D89" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="E89" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>117</v>
+      </c>
+      <c r="D89" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="F89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90">
         <f>A89+1</f>
         <v>89</v>
       </c>
       <c r="B90" s="47" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C90" s="47" t="n">
-        <v>127</v>
-      </c>
-      <c r="D90" s="50" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="D90" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="F90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91">
         <f>A90+1</f>
         <v>90</v>
       </c>
+      <c r="B91" s="47" t="s">
+        <v>160</v>
+      </c>
       <c r="C91" s="47" t="n">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D91" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="G91" t="s">
-        <v>9</v>
-      </c>
-      <c r="H91" s="49" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92">
         <f>A91+1</f>
         <v>91</v>
       </c>
+      <c r="B92" s="47" t="s">
+        <v>9</v>
+      </c>
       <c r="C92" s="47" t="n">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D92" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="G92" t="s">
-        <v>9</v>
-      </c>
-      <c r="H92" s="49" t="n">
-        <v>4</v>
+        <v>162</v>
+      </c>
+      <c r="F92" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4291,11 +4225,14 @@
         <f>A92+1</f>
         <v>92</v>
       </c>
+      <c r="B93" s="47" t="s">
+        <v>163</v>
+      </c>
       <c r="C93" s="47" t="n">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D93" s="47" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F93" t="s">
         <v>9</v>
@@ -4306,11 +4243,14 @@
         <f>A93+1</f>
         <v>93</v>
       </c>
+      <c r="B94" s="47" t="s">
+        <v>165</v>
+      </c>
       <c r="C94" s="47" t="n">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F94" t="s">
         <v>9</v>
@@ -4321,29 +4261,38 @@
         <f>A94+1</f>
         <v>94</v>
       </c>
+      <c r="B95" s="47" t="s">
+        <v>167</v>
+      </c>
       <c r="C95" s="47" t="n">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="D95" s="47" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F95" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:8">
       <c r="A96">
         <f>A95+1</f>
         <v>95</v>
       </c>
+      <c r="B96" s="47" t="s">
+        <v>169</v>
+      </c>
       <c r="C96" s="47" t="n">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D96" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="F96" t="s">
-        <v>9</v>
+        <v>170</v>
+      </c>
+      <c r="G96" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96" s="49" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4351,201 +4300,207 @@
         <f>A96+1</f>
         <v>96</v>
       </c>
+      <c r="B97" s="47" t="s">
+        <v>171</v>
+      </c>
       <c r="C97" s="47" t="n">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D97" s="47" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F97" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:5">
       <c r="A98">
         <f>A97+1</f>
         <v>97</v>
       </c>
+      <c r="B98" s="47" t="s">
+        <v>173</v>
+      </c>
       <c r="C98" s="47" t="n">
-        <v>140</v>
-      </c>
-      <c r="D98" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="F98" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>126</v>
+      </c>
+      <c r="D98" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="E98" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99">
         <f>A98+1</f>
         <v>98</v>
       </c>
+      <c r="B99" s="47" t="s">
+        <v>176</v>
+      </c>
       <c r="C99" s="47" t="n">
-        <v>141</v>
-      </c>
-      <c r="D99" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="F99" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>127</v>
+      </c>
+      <c r="D99" s="50" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
         <f>A99+1</f>
         <v>99</v>
       </c>
       <c r="C100" s="47" t="n">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D100" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="F100" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>178</v>
+      </c>
+      <c r="G100" t="s">
+        <v>9</v>
+      </c>
+      <c r="H100" s="49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
         <f>A100+1</f>
         <v>100</v>
       </c>
       <c r="C101" s="47" t="n">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D101" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="F101" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>179</v>
+      </c>
+      <c r="G101" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101" s="49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102">
         <f>A101+1</f>
         <v>101</v>
       </c>
       <c r="C102" s="47" t="n">
-        <v>148</v>
-      </c>
-      <c r="D102" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="F102" s="48"/>
-    </row>
-    <row r="103" spans="1:4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103">
         <f>A102+1</f>
         <v>102</v>
       </c>
       <c r="C103" s="47" t="n">
-        <v>149</v>
-      </c>
-      <c r="D103" s="47" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>131</v>
+      </c>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104">
         <f>A103+1</f>
         <v>103</v>
       </c>
       <c r="C104" s="47" t="n">
-        <v>150</v>
-      </c>
-      <c r="D104" s="47" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
         <f>A104+1</f>
         <v>104</v>
       </c>
       <c r="C105" s="47" t="n">
-        <v>151</v>
-      </c>
-      <c r="D105" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="G105" t="s">
-        <v>9</v>
-      </c>
-      <c r="H105" s="49" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106">
         <f>A105+1</f>
         <v>105</v>
       </c>
       <c r="C106" s="47" t="n">
-        <v>152</v>
-      </c>
-      <c r="D106" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="G106" t="s">
-        <v>9</v>
-      </c>
-      <c r="H106" s="49" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>134</v>
+      </c>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107">
         <f>A106+1</f>
         <v>106</v>
       </c>
       <c r="C107" s="47" t="n">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D107" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="E107" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>180</v>
+      </c>
+      <c r="F107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108">
         <f>A107+1</f>
         <v>107</v>
       </c>
       <c r="C108" s="47" t="n">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D108" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="E108" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>181</v>
+      </c>
+      <c r="F108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109">
         <f>A108+1</f>
         <v>108</v>
       </c>
       <c r="C109" s="47" t="n">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D109" s="47" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>182</v>
+      </c>
+      <c r="F109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110">
         <f>A109+1</f>
         <v>109</v>
       </c>
       <c r="C110" s="47" t="n">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D110" s="47" t="s">
-        <v>193</v>
+        <v>183</v>
+      </c>
+      <c r="F110" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4553,14 +4508,11 @@
         <f>A110+1</f>
         <v>110</v>
       </c>
-      <c r="B111" s="47" t="n">
-        <v>0</v>
-      </c>
       <c r="C111" s="47" t="n">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="D111" s="47" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F111" t="s">
         <v>9</v>
@@ -4571,17 +4523,11 @@
         <f>A111+1</f>
         <v>111</v>
       </c>
-      <c r="B112" s="47" t="n">
-        <v>1</v>
-      </c>
       <c r="C112" s="47" t="n">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="D112" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="E112" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="F112" t="s">
         <v>9</v>
@@ -4592,18 +4538,11 @@
         <f>A112+1</f>
         <v>112</v>
       </c>
-      <c r="B113" s="47">
-        <f>B112+1</f>
-        <v>2</v>
-      </c>
       <c r="C113" s="47" t="n">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="D113" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="E113" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="F113" t="s">
         <v>9</v>
@@ -4614,18 +4553,11 @@
         <f>A113+1</f>
         <v>113</v>
       </c>
-      <c r="B114" s="47">
-        <f>B113+1</f>
-        <v>3</v>
-      </c>
       <c r="C114" s="47" t="n">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D114" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="E114" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="F114" t="s">
         <v>9</v>
@@ -4636,18 +4568,11 @@
         <f>A114+1</f>
         <v>114</v>
       </c>
-      <c r="B115" s="47">
-        <f>B114+1</f>
-        <v>4</v>
-      </c>
       <c r="C115" s="47" t="n">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D115" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="E115" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="F115" t="s">
         <v>9</v>
@@ -4658,133 +4583,102 @@
         <f>A115+1</f>
         <v>115</v>
       </c>
-      <c r="B116" s="47">
-        <f>B115+1</f>
-        <v>5</v>
-      </c>
       <c r="C116" s="47" t="n">
-        <v>165</v>
-      </c>
-      <c r="D116" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="E116" t="s">
-        <v>204</v>
-      </c>
-      <c r="F116" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>148</v>
+      </c>
+      <c r="D116" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="F116" s="48"/>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117">
         <f>A116+1</f>
         <v>116</v>
       </c>
-      <c r="B117" s="47">
-        <f>B116+1</f>
-        <v>6</v>
-      </c>
       <c r="C117" s="47" t="n">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="D117" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="E117" t="s">
-        <v>206</v>
-      </c>
-      <c r="F117" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118">
         <f>A117+1</f>
         <v>117</v>
       </c>
-      <c r="B118" s="47">
-        <f>B117+1</f>
-        <v>7</v>
-      </c>
       <c r="C118" s="47" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="D118" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="E118" t="s">
-        <v>208</v>
-      </c>
-      <c r="F118" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119">
         <f>A118+1</f>
         <v>118</v>
       </c>
-      <c r="B119" s="47">
-        <f>B118+1</f>
-        <v>8</v>
-      </c>
       <c r="C119" s="47" t="n">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="D119" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="E119" t="s">
-        <v>210</v>
-      </c>
-      <c r="F119" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>192</v>
+      </c>
+      <c r="G119" t="s">
+        <v>9</v>
+      </c>
+      <c r="H119" s="49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120">
         <f>A119+1</f>
         <v>119</v>
       </c>
-      <c r="B120" s="47">
-        <f>B119+1</f>
-        <v>9</v>
-      </c>
       <c r="C120" s="47" t="n">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D120" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="E120" t="s">
-        <v>212</v>
-      </c>
-      <c r="F120" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>193</v>
+      </c>
+      <c r="G120" t="s">
+        <v>9</v>
+      </c>
+      <c r="H120" s="49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121">
         <f>A120+1</f>
         <v>120</v>
       </c>
       <c r="C121" s="47" t="n">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="D121" s="47" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>194</v>
+      </c>
+      <c r="E121" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122">
         <f>A121+1</f>
         <v>121</v>
       </c>
       <c r="C122" s="47" t="n">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D122" s="47" t="s">
-        <v>214</v>
+        <v>196</v>
+      </c>
+      <c r="E122" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4793,10 +4687,10 @@
         <v>122</v>
       </c>
       <c r="C123" s="47" t="n">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="D123" s="47" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4805,10 +4699,10 @@
         <v>123</v>
       </c>
       <c r="C124" s="47" t="n">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D124" s="47" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4816,11 +4710,14 @@
         <f>A124+1</f>
         <v>124</v>
       </c>
+      <c r="B125" s="47" t="n">
+        <v>0</v>
+      </c>
       <c r="C125" s="47" t="n">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D125" s="47" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="F125" t="s">
         <v>9</v>
@@ -4831,11 +4728,17 @@
         <f>A125+1</f>
         <v>125</v>
       </c>
+      <c r="B126" s="47" t="n">
+        <v>1</v>
+      </c>
       <c r="C126" s="47" t="n">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D126" s="47" t="s">
-        <v>218</v>
+        <v>201</v>
+      </c>
+      <c r="E126" t="s">
+        <v>202</v>
       </c>
       <c r="F126" t="s">
         <v>9</v>
@@ -4846,14 +4749,21 @@
         <f>A126+1</f>
         <v>126</v>
       </c>
+      <c r="B127" s="47">
+        <f>B126+1</f>
+        <v>2</v>
+      </c>
       <c r="C127" s="47" t="n">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="D127" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="F127" s="47" t="s">
-        <v>220</v>
+        <v>203</v>
+      </c>
+      <c r="E127" t="s">
+        <v>204</v>
+      </c>
+      <c r="F127" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4861,14 +4771,21 @@
         <f>A127+1</f>
         <v>127</v>
       </c>
+      <c r="B128" s="47">
+        <f>B127+1</f>
+        <v>3</v>
+      </c>
       <c r="C128" s="47" t="n">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="D128" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="F128" s="47" t="s">
-        <v>220</v>
+        <v>205</v>
+      </c>
+      <c r="E128" t="s">
+        <v>206</v>
+      </c>
+      <c r="F128" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4876,14 +4793,18 @@
         <f>A128+1</f>
         <v>128</v>
       </c>
-      <c r="B129" s="47" t="n">
-        <v>0</v>
+      <c r="B129" s="47">
+        <f>B128+1</f>
+        <v>4</v>
       </c>
       <c r="C129" s="47" t="n">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="D129" s="47" t="s">
-        <v>222</v>
+        <v>207</v>
+      </c>
+      <c r="E129" t="s">
+        <v>208</v>
       </c>
       <c r="F129" t="s">
         <v>9</v>
@@ -4894,14 +4815,18 @@
         <f>A129+1</f>
         <v>129</v>
       </c>
-      <c r="B130" s="47" t="n">
-        <v>1</v>
+      <c r="B130" s="47">
+        <f>B129+1</f>
+        <v>5</v>
       </c>
       <c r="C130" s="47" t="n">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D130" s="47" t="s">
-        <v>223</v>
+        <v>209</v>
+      </c>
+      <c r="E130" t="s">
+        <v>210</v>
       </c>
       <c r="F130" t="s">
         <v>9</v>
@@ -4914,13 +4839,16 @@
       </c>
       <c r="B131" s="47">
         <f>B130+1</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C131" s="47" t="n">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D131" s="47" t="s">
-        <v>224</v>
+        <v>211</v>
+      </c>
+      <c r="E131" t="s">
+        <v>212</v>
       </c>
       <c r="F131" t="s">
         <v>9</v>
@@ -4933,13 +4861,16 @@
       </c>
       <c r="B132" s="47">
         <f>B131+1</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C132" s="47" t="n">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="D132" s="47" t="s">
-        <v>225</v>
+        <v>213</v>
+      </c>
+      <c r="E132" t="s">
+        <v>214</v>
       </c>
       <c r="F132" t="s">
         <v>9</v>
@@ -4952,13 +4883,16 @@
       </c>
       <c r="B133" s="47">
         <f>B132+1</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C133" s="47" t="n">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D133" s="47" t="s">
-        <v>226</v>
+        <v>215</v>
+      </c>
+      <c r="E133" t="s">
+        <v>216</v>
       </c>
       <c r="F133" t="s">
         <v>9</v>
@@ -4971,92 +4905,67 @@
       </c>
       <c r="B134" s="47">
         <f>B133+1</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C134" s="47" t="n">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D134" s="47" t="s">
-        <v>227</v>
+        <v>217</v>
+      </c>
+      <c r="E134" t="s">
+        <v>218</v>
       </c>
       <c r="F134" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:4">
       <c r="A135">
         <f>A134+1</f>
         <v>134</v>
       </c>
-      <c r="B135" s="47">
-        <f>B134+1</f>
-        <v>6</v>
-      </c>
       <c r="C135" s="47" t="n">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="D135" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="F135" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136">
         <f>A135+1</f>
         <v>135</v>
       </c>
-      <c r="B136" s="47">
-        <f>B135+1</f>
-        <v>7</v>
-      </c>
       <c r="C136" s="47" t="n">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="D136" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="F136" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137">
         <f>A136+1</f>
         <v>136</v>
       </c>
-      <c r="B137" s="47">
-        <f>B136+1</f>
-        <v>8</v>
-      </c>
       <c r="C137" s="47" t="n">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="D137" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="F137" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138">
         <f>A137+1</f>
         <v>137</v>
       </c>
-      <c r="B138" s="47">
-        <f>B137+1</f>
-        <v>9</v>
-      </c>
       <c r="C138" s="47" t="n">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D138" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="F138" t="s">
-        <v>9</v>
+        <v>222</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -5065,13 +4974,13 @@
         <v>138</v>
       </c>
       <c r="C139" s="47" t="n">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D139" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="F139" s="47" t="s">
-        <v>233</v>
+        <v>223</v>
+      </c>
+      <c r="F139" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -5080,13 +4989,13 @@
         <v>139</v>
       </c>
       <c r="C140" s="47" t="n">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="D140" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="F140" s="47" t="s">
-        <v>235</v>
+        <v>224</v>
+      </c>
+      <c r="F140" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -5095,12 +5004,14 @@
         <v>140</v>
       </c>
       <c r="C141" s="47" t="n">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D141" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="F141" s="47"/>
+        <v>225</v>
+      </c>
+      <c r="F141" s="47" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
@@ -5108,13 +5019,13 @@
         <v>141</v>
       </c>
       <c r="C142" s="47" t="n">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D142" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="F142" t="s">
-        <v>9</v>
+        <v>227</v>
+      </c>
+      <c r="F142" s="47" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -5122,11 +5033,14 @@
         <f>A142+1</f>
         <v>142</v>
       </c>
+      <c r="B143" s="47" t="n">
+        <v>0</v>
+      </c>
       <c r="C143" s="47" t="n">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D143" s="47" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="F143" t="s">
         <v>9</v>
@@ -5137,11 +5051,14 @@
         <f>A143+1</f>
         <v>143</v>
       </c>
+      <c r="B144" s="47" t="n">
+        <v>1</v>
+      </c>
       <c r="C144" s="47" t="n">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D144" s="47" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F144" t="s">
         <v>9</v>
@@ -5152,11 +5069,15 @@
         <f>A144+1</f>
         <v>144</v>
       </c>
+      <c r="B145" s="47">
+        <f>B144+1</f>
+        <v>2</v>
+      </c>
       <c r="C145" s="47" t="n">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D145" s="47" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F145" t="s">
         <v>9</v>
@@ -5167,11 +5088,15 @@
         <f>A145+1</f>
         <v>145</v>
       </c>
+      <c r="B146" s="47">
+        <f>B145+1</f>
+        <v>3</v>
+      </c>
       <c r="C146" s="47" t="n">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="D146" s="47" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="F146" t="s">
         <v>9</v>
@@ -5182,11 +5107,15 @@
         <f>A146+1</f>
         <v>146</v>
       </c>
+      <c r="B147" s="47">
+        <f>B146+1</f>
+        <v>4</v>
+      </c>
       <c r="C147" s="47" t="n">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D147" s="47" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F147" t="s">
         <v>9</v>
@@ -5197,11 +5126,15 @@
         <f>A147+1</f>
         <v>147</v>
       </c>
+      <c r="B148" s="47">
+        <f>B147+1</f>
+        <v>5</v>
+      </c>
       <c r="C148" s="47" t="n">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="D148" s="47" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F148" t="s">
         <v>9</v>
@@ -5212,11 +5145,15 @@
         <f>A148+1</f>
         <v>148</v>
       </c>
+      <c r="B149" s="47">
+        <f>B148+1</f>
+        <v>6</v>
+      </c>
       <c r="C149" s="47" t="n">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="D149" s="47" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="F149" t="s">
         <v>9</v>
@@ -5227,11 +5164,15 @@
         <f>A149+1</f>
         <v>149</v>
       </c>
+      <c r="B150" s="47">
+        <f>B149+1</f>
+        <v>7</v>
+      </c>
       <c r="C150" s="47" t="n">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="D150" s="47" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F150" t="s">
         <v>9</v>
@@ -5242,11 +5183,15 @@
         <f>A150+1</f>
         <v>150</v>
       </c>
+      <c r="B151" s="47">
+        <f>B150+1</f>
+        <v>8</v>
+      </c>
       <c r="C151" s="47" t="n">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D151" s="47" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F151" t="s">
         <v>9</v>
@@ -5257,11 +5202,15 @@
         <f>A151+1</f>
         <v>151</v>
       </c>
+      <c r="B152" s="47">
+        <f>B151+1</f>
+        <v>9</v>
+      </c>
       <c r="C152" s="47" t="n">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="D152" s="47" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F152" t="s">
         <v>9</v>
@@ -5273,13 +5222,13 @@
         <v>152</v>
       </c>
       <c r="C153" s="47" t="n">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D153" s="47" t="s">
-        <v>248</v>
-      </c>
-      <c r="F153" t="s">
-        <v>9</v>
+        <v>238</v>
+      </c>
+      <c r="F153" s="47" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -5288,13 +5237,13 @@
         <v>153</v>
       </c>
       <c r="C154" s="47" t="n">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="D154" s="47" t="s">
-        <v>249</v>
-      </c>
-      <c r="F154" t="s">
-        <v>9</v>
+        <v>240</v>
+      </c>
+      <c r="F154" s="47" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -5303,14 +5252,12 @@
         <v>154</v>
       </c>
       <c r="C155" s="47" t="n">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D155" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="F155" t="s">
-        <v>9</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="F155" s="47"/>
     </row>
     <row r="156" spans="1:6">
       <c r="A156">
@@ -5318,10 +5265,10 @@
         <v>155</v>
       </c>
       <c r="C156" s="47" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D156" s="47" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F156" t="s">
         <v>9</v>
@@ -5333,10 +5280,10 @@
         <v>156</v>
       </c>
       <c r="C157" s="47" t="n">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D157" s="47" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F157" t="s">
         <v>9</v>
@@ -5348,10 +5295,10 @@
         <v>157</v>
       </c>
       <c r="C158" s="47" t="n">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D158" s="47" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F158" t="s">
         <v>9</v>
@@ -5363,10 +5310,10 @@
         <v>158</v>
       </c>
       <c r="C159" s="47" t="n">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D159" s="47" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F159" t="s">
         <v>9</v>
@@ -5378,10 +5325,10 @@
         <v>159</v>
       </c>
       <c r="C160" s="47" t="n">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D160" s="47" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F160" t="s">
         <v>9</v>
@@ -5393,283 +5340,208 @@
         <v>160</v>
       </c>
       <c r="C161" s="47" t="n">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D161" s="47" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F161" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:6">
       <c r="A162">
         <f>A161+1</f>
         <v>161</v>
       </c>
       <c r="C162" s="47" t="n">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D162" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="G162" t="s">
-        <v>9</v>
-      </c>
-      <c r="H162" s="49" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>249</v>
+      </c>
+      <c r="F162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163">
         <f>A162+1</f>
         <v>162</v>
       </c>
-      <c r="B163" s="50" t="s">
-        <v>33</v>
-      </c>
       <c r="C163" s="47" t="n">
-        <v>212</v>
-      </c>
-      <c r="D163" s="50" t="s">
-        <v>258</v>
-      </c>
-      <c r="G163" t="s">
-        <v>9</v>
-      </c>
-      <c r="H163" s="49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>198</v>
+      </c>
+      <c r="D163" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="F163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164">
         <f>A163+1</f>
         <v>163</v>
       </c>
-      <c r="B164" s="50" t="s">
-        <v>37</v>
-      </c>
       <c r="C164" s="47" t="n">
-        <v>213</v>
-      </c>
-      <c r="D164" s="50" t="s">
-        <v>259</v>
-      </c>
-      <c r="G164" t="s">
-        <v>9</v>
-      </c>
-      <c r="H164" s="49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="D164" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="F164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165">
         <f>A164+1</f>
         <v>164</v>
       </c>
-      <c r="B165" s="47" t="s">
-        <v>32</v>
-      </c>
       <c r="C165" s="47" t="n">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D165" s="47" t="s">
-        <v>260</v>
-      </c>
-      <c r="G165" t="s">
-        <v>9</v>
-      </c>
-      <c r="H165" s="49" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>252</v>
+      </c>
+      <c r="F165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166">
         <f>A165+1</f>
         <v>165</v>
       </c>
-      <c r="B166" s="47" t="s">
-        <v>39</v>
-      </c>
       <c r="C166" s="47" t="n">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D166" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="G166" t="s">
-        <v>9</v>
-      </c>
-      <c r="H166" s="49" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>253</v>
+      </c>
+      <c r="F166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167">
         <f>A166+1</f>
         <v>166</v>
       </c>
-      <c r="B167" s="47" t="s">
-        <v>118</v>
-      </c>
       <c r="C167" s="47" t="n">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="D167" s="47" t="s">
-        <v>262</v>
-      </c>
-      <c r="G167" t="s">
-        <v>9</v>
-      </c>
-      <c r="H167" s="49" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>254</v>
+      </c>
+      <c r="F167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168">
         <f>A167+1</f>
         <v>167</v>
       </c>
-      <c r="B168" s="47" t="s">
-        <v>122</v>
-      </c>
       <c r="C168" s="47" t="n">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D168" s="47" t="s">
-        <v>263</v>
-      </c>
-      <c r="G168" t="s">
-        <v>9</v>
-      </c>
-      <c r="H168" s="49" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="F168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169">
         <f>A168+1</f>
         <v>168</v>
       </c>
-      <c r="B169" s="47" t="s">
-        <v>110</v>
-      </c>
       <c r="C169" s="47" t="n">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D169" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="G169" t="s">
-        <v>9</v>
-      </c>
-      <c r="H169" s="49" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="F169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170">
         <f>A169+1</f>
         <v>169</v>
       </c>
-      <c r="B170" s="47" t="s">
-        <v>112</v>
-      </c>
       <c r="C170" s="47" t="n">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="D170" s="47" t="s">
-        <v>265</v>
-      </c>
-      <c r="G170" t="s">
-        <v>9</v>
-      </c>
-      <c r="H170" s="49" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>257</v>
+      </c>
+      <c r="F170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171">
         <f>A170+1</f>
         <v>170</v>
       </c>
-      <c r="B171" s="47" t="s">
-        <v>163</v>
-      </c>
       <c r="C171" s="47" t="n">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D171" s="47" t="s">
-        <v>266</v>
-      </c>
-      <c r="G171" t="s">
-        <v>9</v>
-      </c>
-      <c r="H171" s="49" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>258</v>
+      </c>
+      <c r="F171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172">
         <f>A171+1</f>
         <v>171</v>
       </c>
-      <c r="B172" s="47" t="s">
-        <v>163</v>
-      </c>
       <c r="C172" s="47" t="n">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D172" s="47" t="s">
-        <v>267</v>
-      </c>
-      <c r="G172" t="s">
-        <v>9</v>
-      </c>
-      <c r="H172" s="49" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>259</v>
+      </c>
+      <c r="F172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173">
         <f>A172+1</f>
         <v>172</v>
       </c>
-      <c r="B173" s="47" t="s">
-        <v>163</v>
-      </c>
       <c r="C173" s="47" t="n">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="D173" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="G173" t="s">
-        <v>9</v>
-      </c>
-      <c r="H173" s="49" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>260</v>
+      </c>
+      <c r="F173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174">
         <f>A173+1</f>
         <v>173</v>
       </c>
-      <c r="B174" s="47" t="s">
-        <v>100</v>
-      </c>
       <c r="C174" s="47" t="n">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D174" s="47" t="s">
-        <v>269</v>
-      </c>
-      <c r="G174" t="s">
-        <v>9</v>
-      </c>
-      <c r="H174" s="49" t="n">
-        <v>3</v>
+        <v>261</v>
+      </c>
+      <c r="F174" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5677,282 +5549,296 @@
         <f>A174+1</f>
         <v>174</v>
       </c>
-      <c r="B175" s="47" t="n">
-        <v>1</v>
-      </c>
       <c r="C175" s="47" t="n">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D175" s="47" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F175" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:8">
       <c r="A176">
         <f>A175+1</f>
         <v>175</v>
       </c>
-      <c r="B176" s="47">
-        <f>B175+1</f>
-        <v>2</v>
-      </c>
       <c r="C176" s="47" t="n">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D176" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="F176" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
+        <v>263</v>
+      </c>
+      <c r="G176" t="s">
+        <v>9</v>
+      </c>
+      <c r="H176" s="49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177">
         <f>A176+1</f>
         <v>176</v>
       </c>
-      <c r="B177" s="47">
-        <f>B176+1</f>
-        <v>3</v>
+      <c r="B177" s="50" t="s">
+        <v>33</v>
       </c>
       <c r="C177" s="47" t="n">
-        <v>227</v>
-      </c>
-      <c r="D177" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="F177" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
+        <v>212</v>
+      </c>
+      <c r="D177" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="G177" t="s">
+        <v>9</v>
+      </c>
+      <c r="H177" s="49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178">
         <f>A177+1</f>
         <v>177</v>
       </c>
-      <c r="B178" s="47">
-        <f>B177+1</f>
-        <v>4</v>
+      <c r="B178" s="50" t="s">
+        <v>37</v>
       </c>
       <c r="C178" s="47" t="n">
-        <v>228</v>
-      </c>
-      <c r="D178" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="F178" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
+        <v>213</v>
+      </c>
+      <c r="D178" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="G178" t="s">
+        <v>9</v>
+      </c>
+      <c r="H178" s="49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179">
         <f>A178+1</f>
         <v>178</v>
       </c>
-      <c r="B179" s="47">
-        <f>B178+1</f>
-        <v>5</v>
+      <c r="B179" s="47" t="s">
+        <v>32</v>
       </c>
       <c r="C179" s="47" t="n">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D179" s="47" t="s">
-        <v>274</v>
-      </c>
-      <c r="F179" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
+        <v>266</v>
+      </c>
+      <c r="G179" t="s">
+        <v>9</v>
+      </c>
+      <c r="H179" s="49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180">
         <f>A179+1</f>
         <v>179</v>
       </c>
-      <c r="B180" s="47">
-        <f>B179+1</f>
-        <v>6</v>
+      <c r="B180" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="C180" s="47" t="n">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="D180" s="47" t="s">
-        <v>275</v>
-      </c>
-      <c r="F180" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
+        <v>267</v>
+      </c>
+      <c r="G180" t="s">
+        <v>9</v>
+      </c>
+      <c r="H180" s="49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181">
         <f>A180+1</f>
         <v>180</v>
       </c>
-      <c r="B181" s="47">
-        <f>B180+1</f>
-        <v>7</v>
+      <c r="B181" s="47" t="s">
+        <v>118</v>
       </c>
       <c r="C181" s="47" t="n">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D181" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="F181" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
+        <v>268</v>
+      </c>
+      <c r="G181" t="s">
+        <v>9</v>
+      </c>
+      <c r="H181" s="49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182">
         <f>A181+1</f>
         <v>181</v>
       </c>
-      <c r="B182" s="47">
-        <f>B181+1</f>
-        <v>8</v>
+      <c r="B182" s="47" t="s">
+        <v>122</v>
       </c>
       <c r="C182" s="47" t="n">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D182" s="47" t="s">
-        <v>277</v>
-      </c>
-      <c r="F182" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
+        <v>269</v>
+      </c>
+      <c r="G182" t="s">
+        <v>9</v>
+      </c>
+      <c r="H182" s="49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183">
         <f>A182+1</f>
         <v>182</v>
       </c>
-      <c r="B183" s="47">
-        <f>B182+1</f>
-        <v>9</v>
+      <c r="B183" s="47" t="s">
+        <v>110</v>
       </c>
       <c r="C183" s="47" t="n">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D183" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="F183" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
+        <v>270</v>
+      </c>
+      <c r="G183" t="s">
+        <v>9</v>
+      </c>
+      <c r="H183" s="49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184">
         <f>A183+1</f>
         <v>183</v>
       </c>
-      <c r="B184" s="47" t="n">
-        <v>1</v>
+      <c r="B184" s="47" t="s">
+        <v>112</v>
       </c>
       <c r="C184" s="47" t="n">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D184" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="F184" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
+        <v>271</v>
+      </c>
+      <c r="G184" t="s">
+        <v>9</v>
+      </c>
+      <c r="H184" s="49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185">
         <f>A184+1</f>
         <v>184</v>
       </c>
-      <c r="B185" s="47">
-        <f>B184+1</f>
-        <v>2</v>
+      <c r="B185" s="47" t="s">
+        <v>169</v>
       </c>
       <c r="C185" s="47" t="n">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D185" s="47" t="s">
-        <v>280</v>
-      </c>
-      <c r="F185" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
+        <v>272</v>
+      </c>
+      <c r="G185" t="s">
+        <v>9</v>
+      </c>
+      <c r="H185" s="49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186">
         <f>A185+1</f>
         <v>185</v>
       </c>
-      <c r="B186" s="47">
-        <f>B185+1</f>
-        <v>3</v>
+      <c r="B186" s="47" t="s">
+        <v>169</v>
       </c>
       <c r="C186" s="47" t="n">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D186" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="F186" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
+        <v>273</v>
+      </c>
+      <c r="G186" t="s">
+        <v>9</v>
+      </c>
+      <c r="H186" s="49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187">
         <f>A186+1</f>
         <v>186</v>
       </c>
-      <c r="B187" s="47">
-        <f>B186+1</f>
+      <c r="B187" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C187" s="47" t="n">
+        <v>222</v>
+      </c>
+      <c r="D187" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="G187" t="s">
+        <v>9</v>
+      </c>
+      <c r="H187" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="C187" s="47" t="n">
-        <v>237</v>
-      </c>
-      <c r="D187" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="F187" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188">
         <f>A187+1</f>
         <v>187</v>
       </c>
-      <c r="B188" s="47">
-        <f>B187+1</f>
-        <v>5</v>
+      <c r="B188" s="47" t="s">
+        <v>100</v>
       </c>
       <c r="C188" s="47" t="n">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="D188" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="F188" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
+        <v>275</v>
+      </c>
+      <c r="G188" t="s">
+        <v>9</v>
+      </c>
+      <c r="H188" s="49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189">
         <f>A188+1</f>
         <v>188</v>
       </c>
-      <c r="B189" s="47">
-        <f>B188+1</f>
-        <v>6</v>
-      </c>
       <c r="C189" s="47" t="n">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="D189" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="F189" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5960,15 +5846,14 @@
         <f>A189+1</f>
         <v>189</v>
       </c>
-      <c r="B190" s="47">
-        <f>B189+1</f>
-        <v>7</v>
+      <c r="B190" s="47" t="n">
+        <v>1</v>
       </c>
       <c r="C190" s="47" t="n">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D190" s="47" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F190" t="s">
         <v>9</v>
@@ -5981,13 +5866,13 @@
       </c>
       <c r="B191" s="47">
         <f>B190+1</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C191" s="47" t="n">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="D191" s="47" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="F191" t="s">
         <v>9</v>
@@ -6000,13 +5885,13 @@
       </c>
       <c r="B192" s="47">
         <f>B191+1</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C192" s="47" t="n">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="D192" s="47" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F192" t="s">
         <v>9</v>
@@ -6017,14 +5902,15 @@
         <f>A192+1</f>
         <v>192</v>
       </c>
-      <c r="B193" s="47" t="n">
-        <v>1</v>
+      <c r="B193" s="47">
+        <f>B192+1</f>
+        <v>4</v>
       </c>
       <c r="C193" s="47" t="n">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D193" s="47" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="F193" t="s">
         <v>9</v>
@@ -6037,13 +5923,13 @@
       </c>
       <c r="B194" s="47">
         <f>B193+1</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C194" s="47" t="n">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D194" s="47" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F194" t="s">
         <v>9</v>
@@ -6056,13 +5942,13 @@
       </c>
       <c r="B195" s="47">
         <f>B194+1</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C195" s="47" t="n">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="D195" s="47" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="F195" t="s">
         <v>9</v>
@@ -6075,13 +5961,13 @@
       </c>
       <c r="B196" s="47">
         <f>B195+1</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C196" s="47" t="n">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D196" s="47" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F196" t="s">
         <v>9</v>
@@ -6094,13 +5980,13 @@
       </c>
       <c r="B197" s="47">
         <f>B196+1</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C197" s="47" t="n">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D197" s="47" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="F197" t="s">
         <v>9</v>
@@ -6113,13 +5999,13 @@
       </c>
       <c r="B198" s="47">
         <f>B197+1</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C198" s="47" t="n">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D198" s="47" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F198" t="s">
         <v>9</v>
@@ -6130,15 +6016,14 @@
         <f>A198+1</f>
         <v>198</v>
       </c>
-      <c r="B199" s="47">
-        <f>B198+1</f>
-        <v>7</v>
+      <c r="B199" s="47" t="n">
+        <v>1</v>
       </c>
       <c r="C199" s="47" t="n">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="D199" s="47" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F199" t="s">
         <v>9</v>
@@ -6151,13 +6036,13 @@
       </c>
       <c r="B200" s="47">
         <f>B199+1</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C200" s="47" t="n">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D200" s="47" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F200" t="s">
         <v>9</v>
@@ -6170,13 +6055,13 @@
       </c>
       <c r="B201" s="47">
         <f>B200+1</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C201" s="47" t="n">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D201" s="47" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="F201" t="s">
         <v>9</v>
@@ -6187,11 +6072,15 @@
         <f>A201+1</f>
         <v>201</v>
       </c>
+      <c r="B202" s="47">
+        <f>B201+1</f>
+        <v>4</v>
+      </c>
       <c r="C202" s="47" t="n">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D202" s="47" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F202" t="s">
         <v>9</v>
@@ -6202,11 +6091,15 @@
         <f>A202+1</f>
         <v>202</v>
       </c>
+      <c r="B203" s="47">
+        <f>B202+1</f>
+        <v>5</v>
+      </c>
       <c r="C203" s="47" t="n">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D203" s="47" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="F203" t="s">
         <v>9</v>
@@ -6217,11 +6110,15 @@
         <f>A203+1</f>
         <v>203</v>
       </c>
+      <c r="B204" s="47">
+        <f>B203+1</f>
+        <v>6</v>
+      </c>
       <c r="C204" s="47" t="n">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="D204" s="47" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F204" t="s">
         <v>9</v>
@@ -6232,22 +6129,294 @@
         <f>A204+1</f>
         <v>204</v>
       </c>
+      <c r="B205" s="47">
+        <f>B204+1</f>
+        <v>7</v>
+      </c>
       <c r="C205" s="47" t="n">
+        <v>240</v>
+      </c>
+      <c r="D205" s="47" t="s">
+        <v>291</v>
+      </c>
+      <c r="F205" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206">
+        <f>A205+1</f>
+        <v>205</v>
+      </c>
+      <c r="B206" s="47">
+        <f>B205+1</f>
+        <v>8</v>
+      </c>
+      <c r="C206" s="47" t="n">
+        <v>241</v>
+      </c>
+      <c r="D206" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="F206" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207">
+        <f>A206+1</f>
+        <v>206</v>
+      </c>
+      <c r="B207" s="47">
+        <f>B206+1</f>
+        <v>9</v>
+      </c>
+      <c r="C207" s="47" t="n">
+        <v>242</v>
+      </c>
+      <c r="D207" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="F207" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208">
+        <f>A207+1</f>
+        <v>207</v>
+      </c>
+      <c r="B208" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C208" s="47" t="n">
+        <v>243</v>
+      </c>
+      <c r="D208" s="47" t="s">
+        <v>294</v>
+      </c>
+      <c r="F208" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209">
+        <f>A208+1</f>
+        <v>208</v>
+      </c>
+      <c r="B209" s="47">
+        <f>B208+1</f>
+        <v>2</v>
+      </c>
+      <c r="C209" s="47" t="n">
+        <v>244</v>
+      </c>
+      <c r="D209" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="F209" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210">
+        <f>A209+1</f>
+        <v>209</v>
+      </c>
+      <c r="B210" s="47">
+        <f>B209+1</f>
+        <v>3</v>
+      </c>
+      <c r="C210" s="47" t="n">
+        <v>245</v>
+      </c>
+      <c r="D210" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="F210" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211">
+        <f>A210+1</f>
+        <v>210</v>
+      </c>
+      <c r="B211" s="47">
+        <f>B210+1</f>
+        <v>4</v>
+      </c>
+      <c r="C211" s="47" t="n">
+        <v>246</v>
+      </c>
+      <c r="D211" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="F211" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212">
+        <f>A211+1</f>
+        <v>211</v>
+      </c>
+      <c r="B212" s="47">
+        <f>B211+1</f>
+        <v>5</v>
+      </c>
+      <c r="C212" s="47" t="n">
+        <v>247</v>
+      </c>
+      <c r="D212" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="F212" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213">
+        <f>A212+1</f>
+        <v>212</v>
+      </c>
+      <c r="B213" s="47">
+        <f>B212+1</f>
+        <v>6</v>
+      </c>
+      <c r="C213" s="47" t="n">
+        <v>248</v>
+      </c>
+      <c r="D213" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="F213" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214">
+        <f>A213+1</f>
+        <v>213</v>
+      </c>
+      <c r="B214" s="47">
+        <f>B213+1</f>
+        <v>7</v>
+      </c>
+      <c r="C214" s="47" t="n">
+        <v>249</v>
+      </c>
+      <c r="D214" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="F214" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215">
+        <f>A214+1</f>
+        <v>214</v>
+      </c>
+      <c r="B215" s="47">
+        <f>B214+1</f>
+        <v>8</v>
+      </c>
+      <c r="C215" s="47" t="n">
+        <v>250</v>
+      </c>
+      <c r="D215" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="F215" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216">
+        <f>A215+1</f>
+        <v>215</v>
+      </c>
+      <c r="B216" s="47">
+        <f>B215+1</f>
+        <v>9</v>
+      </c>
+      <c r="C216" s="47" t="n">
+        <v>251</v>
+      </c>
+      <c r="D216" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="F216" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217">
+        <f>A216+1</f>
+        <v>216</v>
+      </c>
+      <c r="C217" s="47" t="n">
+        <v>252</v>
+      </c>
+      <c r="D217"/>
+      <c r="E217"/>
+      <c r="F217"/>
+      <c r="G217" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218">
+        <f>A217+1</f>
+        <v>217</v>
+      </c>
+      <c r="C218" s="47" t="n">
+        <v>253</v>
+      </c>
+      <c r="D218"/>
+      <c r="E218"/>
+      <c r="F218"/>
+      <c r="G218" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219">
+        <f>A218+1</f>
+        <v>218</v>
+      </c>
+      <c r="C219" s="47" t="n">
+        <v>254</v>
+      </c>
+      <c r="D219"/>
+      <c r="E219"/>
+      <c r="F219"/>
+      <c r="G219" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220">
+        <f>A219+1</f>
+        <v>219</v>
+      </c>
+      <c r="C220" s="47" t="n">
         <v>255</v>
       </c>
-      <c r="D205" s="47" t="s">
-        <v>300</v>
-      </c>
-      <c r="F205" t="s">
-        <v>9</v>
+      <c r="D220"/>
+      <c r="E220"/>
+      <c r="F220"/>
+      <c r="G220" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H201"/>
+  <autoFilter ref="A1:H212"/>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1604610075" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1608758811" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6256,16 +6425,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1604610075" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1604610075" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1604610075" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1604610075" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1608758811" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1608758811" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1608758811" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1608758811" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1604610075" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1608758811" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6287,7 +6456,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1604610075" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1608758811" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6296,16 +6465,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1604610075" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1604610075" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1604610075" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1604610075" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1608758811" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1608758811" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1608758811" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1608758811" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1604610075" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1608758811" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6327,7 +6496,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1604610075" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1608758811" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6336,16 +6505,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1604610075" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1604610075" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1604610075" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1604610075" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1608758811" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1608758811" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1608758811" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1608758811" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1604610075" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1608758811" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
